--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>184.5317851779122</v>
+        <v>312.9017226929816</v>
       </c>
       <c r="C2">
-        <v>0.1639326187735279</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D2">
-        <v>98.83674103944685</v>
+        <v>167.5927348060186</v>
       </c>
       <c r="E2">
-        <v>40.01074040807035</v>
+        <v>67.84429895281495</v>
       </c>
       <c r="F2">
-        <v>261.0448693378999</v>
+        <v>442.6413001816562</v>
       </c>
       <c r="G2">
-        <v>364.9617253812709</v>
+        <v>618.8481430378069</v>
       </c>
       <c r="H2">
-        <v>7.641227871552588</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I2">
-        <v>957.1910218349263</v>
+        <v>1623.06303702444</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>221.405072001097</v>
+        <v>375.425991654034</v>
       </c>
       <c r="C3">
-        <v>0.3949285815907718</v>
+        <v>0.669661507914787</v>
       </c>
       <c r="D3">
-        <v>185.6932710438093</v>
+        <v>314.8711987264595</v>
       </c>
       <c r="E3">
-        <v>17.56569091086015</v>
+        <v>29.7853019792846</v>
       </c>
       <c r="F3">
-        <v>212.0161375333197</v>
+        <v>359.5056245130203</v>
       </c>
       <c r="G3">
-        <v>119.6263433194166</v>
+        <v>202.8446691068368</v>
       </c>
       <c r="H3">
-        <v>17.82953170028937</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I3">
-        <v>774.530975090383</v>
+        <v>1313.335131674997</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>237.9401781998348</v>
+        <v>403.4637804258068</v>
       </c>
       <c r="C4">
-        <v>0.4098315469338198</v>
+        <v>0.6949317534964772</v>
       </c>
       <c r="D4">
-        <v>170.7180072499537</v>
+        <v>289.4783601194866</v>
       </c>
       <c r="E4">
-        <v>12.68633232451011</v>
+        <v>21.51160698503888</v>
       </c>
       <c r="F4">
-        <v>226.5922469887353</v>
+        <v>384.2216361982904</v>
       </c>
       <c r="G4">
-        <v>111.5160827553884</v>
+        <v>189.0924881504411</v>
       </c>
       <c r="H4">
-        <v>16.55599372169727</v>
+        <v>28.07320674548668</v>
       </c>
       <c r="I4">
-        <v>776.4186727870534</v>
+        <v>1316.536010378047</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>233.9717527121378</v>
+        <v>396.7347111205812</v>
       </c>
       <c r="C5">
-        <v>0.3651226509046759</v>
+        <v>0.6191210167514068</v>
       </c>
       <c r="D5">
-        <v>152.747690697327</v>
+        <v>259.00695379112</v>
       </c>
       <c r="E5">
-        <v>18.54156262813016</v>
+        <v>31.44004097813375</v>
       </c>
       <c r="F5">
-        <v>267.6703736358161</v>
+        <v>453.875850947688</v>
       </c>
       <c r="G5">
-        <v>115.5712130374025</v>
+        <v>195.9685786286388</v>
       </c>
       <c r="H5">
-        <v>16.55599372169727</v>
+        <v>28.07320674548668</v>
       </c>
       <c r="I5">
-        <v>805.4237090834155</v>
+        <v>1365.7184632284</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>241.5779015635571</v>
+        <v>409.6320939555966</v>
       </c>
       <c r="C6">
-        <v>0.3949285815907718</v>
+        <v>0.669661507914787</v>
       </c>
       <c r="D6">
-        <v>191.6833765613516</v>
+        <v>325.0283341692482</v>
       </c>
       <c r="E6">
-        <v>18.54156262813016</v>
+        <v>31.44004097813375</v>
       </c>
       <c r="F6">
-        <v>233.2177512866516</v>
+        <v>395.4561869643222</v>
       </c>
       <c r="G6">
-        <v>93.26799648632475</v>
+        <v>158.1500809985507</v>
       </c>
       <c r="H6">
-        <v>11.46184180732888</v>
+        <v>19.43529697764462</v>
       </c>
       <c r="I6">
-        <v>790.1453589149349</v>
+        <v>1339.811695551411</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>247.3651887331152</v>
+        <v>419.4453200257173</v>
       </c>
       <c r="C7">
-        <v>0.3576711682331519</v>
+        <v>0.6064858939605619</v>
       </c>
       <c r="D7">
-        <v>209.6536931139782</v>
+        <v>355.4997404976153</v>
       </c>
       <c r="E7">
-        <v>28.30027980083025</v>
+        <v>47.98743096662519</v>
       </c>
       <c r="F7">
-        <v>200.0902297970705</v>
+        <v>339.2834331341631</v>
       </c>
       <c r="G7">
-        <v>79.07504049927537</v>
+        <v>134.0837643248582</v>
       </c>
       <c r="H7">
-        <v>17.82953170028937</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I7">
-        <v>782.671634812792</v>
+        <v>1327.138859030387</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>272.8292522791711</v>
+        <v>462.6235147342466</v>
       </c>
       <c r="C8">
-        <v>0.3874770989192479</v>
+        <v>0.6570263851239422</v>
       </c>
       <c r="D8">
-        <v>182.6982182850381</v>
+        <v>309.7926310050648</v>
       </c>
       <c r="E8">
-        <v>34.15551010445029</v>
+        <v>57.91586495972007</v>
       </c>
       <c r="F8">
-        <v>197.4400280779039</v>
+        <v>334.7896128277501</v>
       </c>
       <c r="G8">
-        <v>50.68912852517652</v>
+        <v>85.95113097747318</v>
       </c>
       <c r="H8">
-        <v>30.56491148621035</v>
+        <v>51.82745860705233</v>
       </c>
       <c r="I8">
-        <v>768.7645258568695</v>
+        <v>1303.557239496431</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>302.9231455608735</v>
+        <v>513.6522902988727</v>
       </c>
       <c r="C9">
-        <v>0.2533504108318159</v>
+        <v>0.4295941748887313</v>
       </c>
       <c r="D9">
-        <v>140.7674796622425</v>
+        <v>238.6926829055417</v>
       </c>
       <c r="E9">
-        <v>52.69707273258045</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F9">
-        <v>192.1396246395709</v>
+        <v>325.8019722149247</v>
       </c>
       <c r="G9">
-        <v>42.57886796114826</v>
+        <v>72.19895002107747</v>
       </c>
       <c r="H9">
-        <v>7.641227871552588</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I9">
-        <v>739.0007688388001</v>
+        <v>1253.088260204922</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>294.1595392755427</v>
+        <v>498.7922622498336</v>
       </c>
       <c r="C10">
-        <v>0.1639326187735279</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D10">
-        <v>116.8070575920736</v>
+        <v>198.0641411343856</v>
       </c>
       <c r="E10">
-        <v>70.26276364344061</v>
+        <v>119.1412079171384</v>
       </c>
       <c r="F10">
-        <v>103.3578670474933</v>
+        <v>175.2589919500974</v>
       </c>
       <c r="G10">
-        <v>36.49617253812708</v>
+        <v>61.88481430378071</v>
       </c>
       <c r="H10">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I10">
-        <v>622.520870694043</v>
+        <v>1055.578867698595</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>207.3502317321702</v>
+        <v>351.5938711980277</v>
       </c>
       <c r="C11">
-        <v>0.1415781707589559</v>
+        <v>0.2400673330260557</v>
       </c>
       <c r="D11">
-        <v>101.831793798218</v>
+        <v>172.671302527413</v>
       </c>
       <c r="E11">
-        <v>54.64881616712049</v>
+        <v>92.66538393555211</v>
       </c>
       <c r="F11">
-        <v>53.00403438332993</v>
+        <v>89.87640612825508</v>
       </c>
       <c r="G11">
-        <v>22.30321655107766</v>
+        <v>37.81849763008819</v>
       </c>
       <c r="H11">
-        <v>3.820613935776294</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I11">
-        <v>443.1002847384515</v>
+        <v>751.3439610782435</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>175.7681788925811</v>
+        <v>298.0416946439418</v>
       </c>
       <c r="C12">
-        <v>0.2980593068609599</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D12">
-        <v>68.88621345173576</v>
+        <v>116.8070575920736</v>
       </c>
       <c r="E12">
-        <v>45.86597071169039</v>
+        <v>77.77273294590981</v>
       </c>
       <c r="F12">
-        <v>50.35383266416341</v>
+        <v>85.38258582184233</v>
       </c>
       <c r="G12">
-        <v>34.46860739712005</v>
+        <v>58.44676906468177</v>
       </c>
       <c r="H12">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I12">
-        <v>376.9144004027438</v>
+        <v>639.1157224220435</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>141.0444558752321</v>
+        <v>239.1623382232198</v>
       </c>
       <c r="C13">
-        <v>0.2235444801457199</v>
+        <v>0.3790536837253511</v>
       </c>
       <c r="D13">
-        <v>53.9109496578801</v>
+        <v>91.41421898510107</v>
       </c>
       <c r="E13">
-        <v>39.03486869080033</v>
+        <v>66.1895599539658</v>
       </c>
       <c r="F13">
-        <v>29.15221891083145</v>
+        <v>49.43202337054028</v>
       </c>
       <c r="G13">
-        <v>22.30321655107766</v>
+        <v>37.81849763008819</v>
       </c>
       <c r="H13">
-        <v>2.547075957184196</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I13">
-        <v>288.2163301231515</v>
+        <v>488.7146467305615</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>106.9821371058326</v>
+        <v>181.4044933533683</v>
       </c>
       <c r="C14">
-        <v>0.2533504108318159</v>
+        <v>0.4295941748887313</v>
       </c>
       <c r="D14">
-        <v>44.92579138156675</v>
+        <v>76.17851582091754</v>
       </c>
       <c r="E14">
-        <v>12.68633232451011</v>
+        <v>21.51160698503888</v>
       </c>
       <c r="F14">
-        <v>18.55141203416547</v>
+        <v>31.45674214488928</v>
       </c>
       <c r="G14">
-        <v>14.19295598704942</v>
+        <v>24.0663166736925</v>
       </c>
       <c r="H14">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I14">
-        <v>198.8655172225483</v>
+        <v>337.2067465947558</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>66.96718010488749</v>
+        <v>113.5530445256788</v>
       </c>
       <c r="C15">
-        <v>0.1639326187735279</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D15">
-        <v>35.9406331052534</v>
+        <v>60.94281265673405</v>
       </c>
       <c r="E15">
-        <v>8.782845455430076</v>
+        <v>14.8926509896423</v>
       </c>
       <c r="F15">
-        <v>30.47731977041471</v>
+        <v>51.67893352374666</v>
       </c>
       <c r="G15">
-        <v>24.33078169208471</v>
+        <v>41.25654286918713</v>
       </c>
       <c r="H15">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I15">
-        <v>167.936230725436</v>
+        <v>284.761434708348</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>50.26672284416245</v>
+        <v>85.23487786618853</v>
       </c>
       <c r="C16">
-        <v>0.2309959628172439</v>
+        <v>0.3916888065161962</v>
       </c>
       <c r="D16">
-        <v>17.9703165526267</v>
+        <v>30.47140632836702</v>
       </c>
       <c r="E16">
-        <v>2.927615151810025</v>
+        <v>4.964216996547433</v>
       </c>
       <c r="F16">
-        <v>11.92590773624923</v>
+        <v>20.2221913788574</v>
       </c>
       <c r="G16">
-        <v>16.22052112805649</v>
+        <v>27.50436191279144</v>
       </c>
       <c r="H16">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I16">
-        <v>100.8156173543143</v>
+        <v>170.9482207312285</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>32.07810602555103</v>
+        <v>54.39331021723873</v>
       </c>
       <c r="C17">
-        <v>0.2608018935033399</v>
+        <v>0.4422292976795764</v>
       </c>
       <c r="E17">
-        <v>0.9758717172700085</v>
+        <v>1.654738998849145</v>
       </c>
       <c r="F17">
-        <v>25.1769163320817</v>
+        <v>42.69129291092116</v>
       </c>
       <c r="G17">
-        <v>16.22052112805649</v>
+        <v>27.50436191279144</v>
       </c>
       <c r="H17">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I17">
-        <v>75.98575507505468</v>
+        <v>128.8454107794406</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>19.18072319053567</v>
+        <v>32.52383497525613</v>
       </c>
       <c r="C18">
-        <v>0.2160929974741959</v>
+        <v>0.3664185609345062</v>
       </c>
       <c r="D18">
-        <v>17.9703165526267</v>
+        <v>30.47140632836702</v>
       </c>
       <c r="F18">
-        <v>18.55141203416547</v>
+        <v>31.45674214488928</v>
       </c>
       <c r="G18">
-        <v>28.38591197409885</v>
+        <v>48.132633347385</v>
       </c>
       <c r="I18">
-        <v>84.30445674890089</v>
+        <v>142.9510353568319</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>23.81055292618221</v>
+        <v>40.37441583135246</v>
       </c>
       <c r="C19">
-        <v>0.1415781707589559</v>
+        <v>0.2400673330260557</v>
       </c>
       <c r="D19">
-        <v>14.97526379385559</v>
+        <v>25.39283860697251</v>
       </c>
       <c r="E19">
-        <v>3.903486869080034</v>
+        <v>6.618955995396579</v>
       </c>
       <c r="F19">
-        <v>18.55141203416547</v>
+        <v>31.45674214488928</v>
       </c>
       <c r="G19">
-        <v>34.46860739712005</v>
+        <v>58.44676906468177</v>
       </c>
       <c r="I19">
-        <v>95.85090119116231</v>
+        <v>162.5297889763186</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>39.35355275299561</v>
+        <v>66.72993727681866</v>
       </c>
       <c r="C20">
-        <v>0.126675205415908</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D20">
-        <v>29.95052758771118</v>
+        <v>50.78567721394501</v>
       </c>
       <c r="E20">
-        <v>1.951743434540017</v>
+        <v>3.30947799769829</v>
       </c>
       <c r="F20">
-        <v>31.80242062999795</v>
+        <v>53.92584367695307</v>
       </c>
       <c r="G20">
-        <v>42.57886796114826</v>
+        <v>72.19895002107747</v>
       </c>
       <c r="I20">
-        <v>145.7637875718089</v>
+        <v>247.1646832739369</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>89.12422241119594</v>
+        <v>151.1236814798539</v>
       </c>
       <c r="C21">
-        <v>0.1415781707589559</v>
+        <v>0.2400673330260557</v>
       </c>
       <c r="D21">
-        <v>68.88621345173576</v>
+        <v>116.8070575920736</v>
       </c>
       <c r="E21">
-        <v>25.37266464902021</v>
+        <v>43.02321397007776</v>
       </c>
       <c r="F21">
-        <v>79.50605157499486</v>
+        <v>134.8146091923826</v>
       </c>
       <c r="G21">
-        <v>66.90964965323296</v>
+        <v>113.4554928902646</v>
       </c>
       <c r="H21">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I21">
-        <v>331.2139178895308</v>
+        <v>561.623599899639</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>164.3589556154523</v>
+        <v>278.695620391419</v>
       </c>
       <c r="C22">
-        <v>0.156481136102004</v>
+        <v>0.2653375786077459</v>
       </c>
       <c r="D22">
-        <v>122.7971631096158</v>
+        <v>208.2212765771746</v>
       </c>
       <c r="E22">
-        <v>90.75606970611076</v>
+        <v>153.8907268929705</v>
       </c>
       <c r="F22">
-        <v>136.4853885370745</v>
+        <v>231.4317457802568</v>
       </c>
       <c r="G22">
-        <v>109.4885176143813</v>
+        <v>185.6544429113421</v>
       </c>
       <c r="H22">
-        <v>5.094151914368392</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I22">
-        <v>629.136727633105</v>
+        <v>1066.797059899613</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>231.3261357203397</v>
+        <v>392.2486649170975</v>
       </c>
       <c r="C23">
-        <v>0.09686927472981197</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D23">
-        <v>98.83674103944685</v>
+        <v>167.5927348060186</v>
       </c>
       <c r="E23">
-        <v>71.23863536071065</v>
+        <v>120.7959469159876</v>
       </c>
       <c r="F23">
-        <v>157.6870022904066</v>
+        <v>267.3823082315589</v>
       </c>
       <c r="G23">
-        <v>109.4885176143813</v>
+        <v>185.6544429113421</v>
       </c>
       <c r="H23">
-        <v>8.914765850144686</v>
+        <v>15.1163420937236</v>
       </c>
       <c r="I23">
-        <v>677.5886671501596</v>
+        <v>1148.954696472009</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>282.7503159984136</v>
+        <v>479.4461879973103</v>
       </c>
       <c r="C24">
-        <v>0.2086415148026719</v>
+        <v>0.3537834381436611</v>
       </c>
       <c r="D24">
-        <v>161.7328489736403</v>
+        <v>274.2426569553031</v>
       </c>
       <c r="E24">
-        <v>38.05899697353032</v>
+        <v>64.53482095511666</v>
       </c>
       <c r="F24">
-        <v>189.4894229204044</v>
+        <v>321.3081519085119</v>
       </c>
       <c r="G24">
-        <v>158.1500809985507</v>
+        <v>268.1675286497163</v>
       </c>
       <c r="H24">
-        <v>11.46184180732888</v>
+        <v>19.43529697764462</v>
       </c>
       <c r="I24">
-        <v>841.8521491866709</v>
+        <v>1427.488426881747</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>212.9721678397409</v>
+        <v>361.1267193804302</v>
       </c>
       <c r="C25">
-        <v>0.134126688087432</v>
+        <v>0.2274322102352107</v>
       </c>
       <c r="D25">
-        <v>152.747690697327</v>
+        <v>259.00695379112</v>
       </c>
       <c r="E25">
-        <v>80.99735253341069</v>
+        <v>137.343336904479</v>
       </c>
       <c r="F25">
-        <v>214.6663392524862</v>
+        <v>363.9994448194331</v>
       </c>
       <c r="G25">
-        <v>253.4456426258825</v>
+        <v>429.7556548873661</v>
       </c>
       <c r="H25">
-        <v>22.92368361465777</v>
+        <v>38.87059395528924</v>
       </c>
       <c r="I25">
-        <v>937.8870032515925</v>
+        <v>1590.330135948353</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>180.8940618141898</v>
+        <v>306.7334091631916</v>
       </c>
       <c r="C26">
-        <v>0.126675205415908</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D26">
-        <v>143.7625324210136</v>
+        <v>243.7712506269362</v>
       </c>
       <c r="E26">
-        <v>39.03486869080033</v>
+        <v>66.1895599539658</v>
       </c>
       <c r="F26">
-        <v>254.4193650399836</v>
+        <v>431.4067494156246</v>
       </c>
       <c r="G26">
-        <v>397.4027676373838</v>
+        <v>673.8568668633898</v>
       </c>
       <c r="H26">
-        <v>8.914765850144686</v>
+        <v>15.1163420937236</v>
       </c>
       <c r="I26">
-        <v>1024.555036658932</v>
+        <v>1737.288975204276</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>216.940593327438</v>
+        <v>367.8557886856556</v>
       </c>
       <c r="C27">
-        <v>0.3055107895324839</v>
+        <v>0.5180400344246466</v>
       </c>
       <c r="D27">
-        <v>266.5596955306293</v>
+        <v>451.9925272041109</v>
       </c>
       <c r="E27">
-        <v>16.58981919359014</v>
+        <v>28.13056298043545</v>
       </c>
       <c r="F27">
-        <v>206.7157340949867</v>
+        <v>350.5179839001947</v>
       </c>
       <c r="G27">
-        <v>129.7641690244519</v>
+        <v>220.0348953023315</v>
       </c>
       <c r="H27">
-        <v>19.10306967888147</v>
+        <v>32.39216162940771</v>
       </c>
       <c r="I27">
-        <v>855.97859163951</v>
+        <v>1451.44195973656</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>233.1449974022009</v>
+        <v>395.3328216819926</v>
       </c>
       <c r="C28">
-        <v>0.312962272204008</v>
+        <v>0.5306751572154917</v>
       </c>
       <c r="D28">
-        <v>245.5943262192315</v>
+        <v>416.4425531543492</v>
       </c>
       <c r="E28">
-        <v>12.68633232451011</v>
+        <v>21.51160698503888</v>
       </c>
       <c r="F28">
-        <v>221.2918435504024</v>
+        <v>375.2339955854649</v>
       </c>
       <c r="G28">
-        <v>121.6539084604236</v>
+        <v>206.2827143459358</v>
       </c>
       <c r="H28">
-        <v>17.82953170028937</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I28">
-        <v>852.5139019292619</v>
+        <v>1445.567051097444</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>229.3419229764912</v>
+        <v>388.8841302644848</v>
       </c>
       <c r="C29">
-        <v>0.2831563415179119</v>
+        <v>0.4801346660521115</v>
       </c>
       <c r="D29">
-        <v>218.6388513902916</v>
+        <v>370.7354436617988</v>
       </c>
       <c r="E29">
-        <v>17.56569091086015</v>
+        <v>29.7853019792846</v>
       </c>
       <c r="F29">
-        <v>261.0448693378999</v>
+        <v>442.6413001816562</v>
       </c>
       <c r="G29">
-        <v>125.7090387424377</v>
+        <v>213.1588048241335</v>
       </c>
       <c r="H29">
-        <v>17.82953170028937</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I29">
-        <v>870.4130613997879</v>
+        <v>1475.917799764857</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>236.7827207659232</v>
+        <v>401.5011352117827</v>
       </c>
       <c r="C30">
-        <v>0.3055107895324839</v>
+        <v>0.5180400344246466</v>
       </c>
       <c r="D30">
-        <v>275.544853806943</v>
+        <v>467.2282303682943</v>
       </c>
       <c r="E30">
-        <v>17.56569091086015</v>
+        <v>29.7853019792846</v>
       </c>
       <c r="F30">
-        <v>227.9173478483187</v>
+        <v>386.4685463514969</v>
       </c>
       <c r="G30">
-        <v>101.378257050353</v>
+        <v>171.9022619549464</v>
       </c>
       <c r="H30">
-        <v>12.73537978592098</v>
+        <v>21.59477441960514</v>
       </c>
       <c r="I30">
-        <v>872.2297609578513</v>
+        <v>1478.998290319835</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>242.404656873494</v>
+        <v>411.0339833941853</v>
       </c>
       <c r="C31">
-        <v>0.2757048588463879</v>
+        <v>0.4674995432612665</v>
       </c>
       <c r="D31">
-        <v>302.5003286358829</v>
+        <v>512.9353398608449</v>
       </c>
       <c r="E31">
-        <v>27.32440808356024</v>
+        <v>46.33269196777606</v>
       </c>
       <c r="F31">
-        <v>194.7898263587375</v>
+        <v>330.2957925213374</v>
       </c>
       <c r="G31">
-        <v>85.15773592229652</v>
+        <v>144.3979000421549</v>
       </c>
       <c r="H31">
-        <v>19.10306967888147</v>
+        <v>32.39216162940771</v>
       </c>
       <c r="I31">
-        <v>871.5557304116991</v>
+        <v>1477.855368958968</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>267.3726672335878</v>
+        <v>453.3710444395618</v>
       </c>
       <c r="C32">
-        <v>0.2980593068609599</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D32">
-        <v>263.5646427718582</v>
+        <v>446.9139594827163</v>
       </c>
       <c r="E32">
-        <v>33.17963838718028</v>
+        <v>56.26112596087091</v>
       </c>
       <c r="F32">
-        <v>192.1396246395709</v>
+        <v>325.8019722149247</v>
       </c>
       <c r="G32">
-        <v>54.74425880719065</v>
+        <v>92.82722145567104</v>
       </c>
       <c r="H32">
-        <v>33.11198744339454</v>
+        <v>56.14641349097336</v>
       </c>
       <c r="I32">
-        <v>844.4108785896435</v>
+        <v>1431.827141956352</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>296.8051562673406</v>
+        <v>503.2783084533169</v>
       </c>
       <c r="C33">
-        <v>0.1937385494596239</v>
+        <v>0.3285131925619711</v>
       </c>
       <c r="D33">
-        <v>203.663587596436</v>
+        <v>345.342605054826</v>
       </c>
       <c r="E33">
-        <v>50.74532929804042</v>
+        <v>86.04642794015552</v>
       </c>
       <c r="F33">
-        <v>186.8392212012379</v>
+        <v>316.8143316020991</v>
       </c>
       <c r="G33">
-        <v>46.63399824316237</v>
+        <v>79.07504049927537</v>
       </c>
       <c r="H33">
-        <v>8.914765850144686</v>
+        <v>15.1163420937236</v>
       </c>
       <c r="I33">
-        <v>793.7957970058218</v>
+        <v>1346.001568835959</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>288.2069010439972</v>
+        <v>488.6986582919953</v>
       </c>
       <c r="C34">
-        <v>0.126675205415908</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D34">
-        <v>167.7229544911825</v>
+        <v>284.3997923980924</v>
       </c>
       <c r="E34">
-        <v>68.31102020890059</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F34">
-        <v>100.7076653283268</v>
+        <v>170.7651716436847</v>
       </c>
       <c r="G34">
-        <v>40.5513028201412</v>
+        <v>68.7609047819786</v>
       </c>
       <c r="H34">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I34">
-        <v>666.9000570765563</v>
+        <v>1130.830531564596</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>203.2164551824858</v>
+        <v>344.5844240050843</v>
       </c>
       <c r="C35">
-        <v>0.11177224007286</v>
+        <v>0.1895268418626756</v>
       </c>
       <c r="D35">
-        <v>146.7575851797847</v>
+        <v>248.8498183483307</v>
       </c>
       <c r="E35">
-        <v>52.69707273258045</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F35">
-        <v>51.67893352374667</v>
+        <v>87.62949597504868</v>
       </c>
       <c r="G35">
-        <v>24.33078169208471</v>
+        <v>41.25654286918713</v>
       </c>
       <c r="H35">
-        <v>3.820613935776294</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I35">
-        <v>482.6132144865315</v>
+        <v>818.3441463032487</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>172.2958065908463</v>
+        <v>292.1537590018697</v>
       </c>
       <c r="C36">
-        <v>0.2309959628172439</v>
+        <v>0.3916888065161962</v>
       </c>
       <c r="D36">
-        <v>98.83674103944685</v>
+        <v>167.5927348060186</v>
       </c>
       <c r="E36">
-        <v>44.89009899442039</v>
+        <v>76.11799394706064</v>
       </c>
       <c r="F36">
-        <v>49.02873180458018</v>
+        <v>83.13567566863595</v>
       </c>
       <c r="G36">
-        <v>38.52373767913414</v>
+        <v>65.32285954287966</v>
       </c>
       <c r="H36">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I36">
-        <v>405.0796500498372</v>
+        <v>686.8741892149411</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>138.2334878214468</v>
+        <v>234.3959141320184</v>
       </c>
       <c r="C37">
-        <v>0.171384101445052</v>
+        <v>0.2906078241894359</v>
       </c>
       <c r="D37">
-        <v>77.87137172804906</v>
+        <v>132.0427607562571</v>
       </c>
       <c r="E37">
-        <v>38.05899697353032</v>
+        <v>64.53482095511666</v>
       </c>
       <c r="F37">
-        <v>27.8271180512482</v>
+        <v>47.18511321733391</v>
       </c>
       <c r="G37">
-        <v>24.33078169208471</v>
+        <v>41.25654286918713</v>
       </c>
       <c r="H37">
-        <v>2.547075957184196</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I37">
-        <v>309.0402163249883</v>
+        <v>524.0247146380236</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>104.8325732999967</v>
+        <v>177.7595808130378</v>
       </c>
       <c r="C38">
-        <v>0.1937385494596239</v>
+        <v>0.3285131925619711</v>
       </c>
       <c r="D38">
-        <v>65.89116069296456</v>
+        <v>111.7284898706791</v>
       </c>
       <c r="E38">
-        <v>12.68633232451011</v>
+        <v>21.51160698503888</v>
       </c>
       <c r="F38">
-        <v>18.55141203416547</v>
+        <v>31.45674214488928</v>
       </c>
       <c r="G38">
-        <v>16.22052112805649</v>
+        <v>27.50436191279144</v>
       </c>
       <c r="H38">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I38">
-        <v>219.6492760077451</v>
+        <v>372.448772360959</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>65.64437160898841</v>
+        <v>111.310021423937</v>
       </c>
       <c r="C39">
-        <v>0.126675205415908</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D39">
-        <v>50.91589689910899</v>
+        <v>86.33565126370651</v>
       </c>
       <c r="E39">
-        <v>8.782845455430076</v>
+        <v>14.8926509896423</v>
       </c>
       <c r="F39">
-        <v>29.15221891083145</v>
+        <v>49.43202337054028</v>
       </c>
       <c r="G39">
-        <v>26.35834683309178</v>
+        <v>44.69458810828606</v>
       </c>
       <c r="H39">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I39">
-        <v>182.2538928914587</v>
+        <v>309.039209685517</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>49.27461647223819</v>
+        <v>83.55261053988211</v>
       </c>
       <c r="C40">
-        <v>0.178835584116576</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D40">
-        <v>26.95547482894005</v>
+        <v>45.70710949255054</v>
       </c>
       <c r="E40">
-        <v>2.927615151810025</v>
+        <v>4.964216996547433</v>
       </c>
       <c r="F40">
-        <v>11.92590773624923</v>
+        <v>20.2221913788574</v>
       </c>
       <c r="G40">
-        <v>18.24808626906354</v>
+        <v>30.94240715189036</v>
       </c>
       <c r="H40">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I40">
-        <v>110.7840740210097</v>
+        <v>187.8512559486686</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>31.41670177760153</v>
+        <v>53.2717986663678</v>
       </c>
       <c r="C41">
-        <v>0.2011900321311479</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="E41">
-        <v>0.9758717172700085</v>
+        <v>1.654738998849145</v>
       </c>
       <c r="F41">
-        <v>25.1769163320817</v>
+        <v>42.69129291092116</v>
       </c>
       <c r="G41">
-        <v>18.24808626906354</v>
+        <v>30.94240715189036</v>
       </c>
       <c r="H41">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I41">
-        <v>77.29230410674003</v>
+        <v>131.0608634853418</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>18.85002106656092</v>
+        <v>31.96307919982069</v>
       </c>
       <c r="C42">
-        <v>0.1639326187735279</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D42">
-        <v>26.95547482894005</v>
+        <v>45.70710949255054</v>
       </c>
       <c r="F42">
-        <v>18.55141203416547</v>
+        <v>31.45674214488928</v>
       </c>
       <c r="G42">
-        <v>30.4134771151059</v>
+        <v>51.57067858648396</v>
       </c>
       <c r="I42">
-        <v>94.93431766354587</v>
+        <v>160.9755821251431</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>23.31449974022009</v>
+        <v>39.53328216819926</v>
       </c>
       <c r="C43">
-        <v>0.11177224007286</v>
+        <v>0.1895268418626756</v>
       </c>
       <c r="D43">
-        <v>20.96536931139781</v>
+        <v>35.54997404976154</v>
       </c>
       <c r="E43">
-        <v>3.903486869080034</v>
+        <v>6.618955995396579</v>
       </c>
       <c r="F43">
-        <v>18.55141203416547</v>
+        <v>31.45674214488928</v>
       </c>
       <c r="G43">
-        <v>38.52373767913414</v>
+        <v>65.32285954287966</v>
       </c>
       <c r="I43">
-        <v>105.3702778740704</v>
+        <v>178.671340742989</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>38.52679744305873</v>
+        <v>65.32804783822998</v>
       </c>
       <c r="C44">
-        <v>0.09686927472981197</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D44">
-        <v>41.93073862279562</v>
+        <v>71.09994809952309</v>
       </c>
       <c r="E44">
-        <v>1.951743434540017</v>
+        <v>3.30947799769829</v>
       </c>
       <c r="F44">
-        <v>30.47731977041471</v>
+        <v>51.67893352374666</v>
       </c>
       <c r="G44">
-        <v>46.63399824316237</v>
+        <v>79.07504049927537</v>
       </c>
       <c r="I44">
-        <v>159.6174667887013</v>
+        <v>270.6557045547544</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>87.30536072933478</v>
+        <v>148.039524714959</v>
       </c>
       <c r="C45">
-        <v>0.11177224007286</v>
+        <v>0.1895268418626756</v>
       </c>
       <c r="D45">
-        <v>98.83674103944685</v>
+        <v>167.5927348060186</v>
       </c>
       <c r="E45">
-        <v>24.39679293175021</v>
+        <v>41.3684749712286</v>
       </c>
       <c r="F45">
-        <v>76.8558498558284</v>
+        <v>130.3207888859699</v>
       </c>
       <c r="G45">
-        <v>72.99234507625415</v>
+        <v>123.7696286075614</v>
       </c>
       <c r="H45">
-        <v>1.273537978592098</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I45">
-        <v>361.7723998512794</v>
+        <v>613.4401562695606</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>161.0519343757048</v>
+        <v>273.0880626370644</v>
       </c>
       <c r="C46">
-        <v>0.119223722744384</v>
+        <v>0.2021619646535207</v>
       </c>
       <c r="D46">
-        <v>176.7081127674959</v>
+        <v>299.6354955622757</v>
       </c>
       <c r="E46">
-        <v>87.82845455430078</v>
+        <v>148.926509896423</v>
       </c>
       <c r="F46">
-        <v>132.5100859583248</v>
+        <v>224.6910153206377</v>
       </c>
       <c r="G46">
-        <v>119.6263433194166</v>
+        <v>202.8446691068368</v>
       </c>
       <c r="H46">
-        <v>5.094151914368392</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I46">
-        <v>682.9383066123557</v>
+        <v>1158.025824255733</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>226.6963059846931</v>
+        <v>384.3980840610014</v>
       </c>
       <c r="C47">
-        <v>0.07451482671523997</v>
+        <v>0.1263512279084504</v>
       </c>
       <c r="D47">
-        <v>143.7625324210136</v>
+        <v>243.7712506269362</v>
       </c>
       <c r="E47">
-        <v>69.28689192617063</v>
+        <v>117.4864689182893</v>
       </c>
       <c r="F47">
-        <v>153.7116997116568</v>
+        <v>260.6415777719398</v>
       </c>
       <c r="G47">
-        <v>119.6263433194166</v>
+        <v>202.8446691068368</v>
       </c>
       <c r="H47">
-        <v>10.18830382873678</v>
+        <v>17.27581953568411</v>
       </c>
       <c r="I47">
-        <v>723.3465920184028</v>
+        <v>1226.544221248596</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>277.1283798908431</v>
+        <v>469.9133398149079</v>
       </c>
       <c r="C48">
-        <v>0.1639326187735279</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D48">
-        <v>233.6141151841472</v>
+        <v>396.1282822687713</v>
       </c>
       <c r="E48">
-        <v>37.08312525626032</v>
+        <v>62.8800819562675</v>
       </c>
       <c r="F48">
-        <v>184.1890194820715</v>
+        <v>312.3205112956865</v>
       </c>
       <c r="G48">
-        <v>172.3430369856001</v>
+        <v>292.2338453234088</v>
       </c>
       <c r="H48">
-        <v>12.73537978592098</v>
+        <v>21.59477441960514</v>
       </c>
       <c r="I48">
-        <v>917.2569892036167</v>
+        <v>1555.348807780046</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>208.6730402280691</v>
+        <v>353.8368942997695</v>
       </c>
       <c r="C49">
-        <v>0.104320757401336</v>
+        <v>0.1768917190718305</v>
       </c>
       <c r="D49">
-        <v>218.6388513902916</v>
+        <v>370.7354436617988</v>
       </c>
       <c r="E49">
-        <v>79.04560909887068</v>
+        <v>134.0338589067807</v>
       </c>
       <c r="F49">
-        <v>209.3659358141531</v>
+        <v>355.0118042066076</v>
       </c>
       <c r="G49">
-        <v>275.7488591769604</v>
+        <v>467.5741525174541</v>
       </c>
       <c r="H49">
-        <v>25.47075957184196</v>
+        <v>43.18954883921027</v>
       </c>
       <c r="I49">
-        <v>1017.047376037588</v>
+        <v>1724.558594150693</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>312.9017226929816</v>
+        <v>184.0776462480239</v>
       </c>
       <c r="C2">
-        <v>0.2779727013985909</v>
+        <v>0.1635291750849959</v>
       </c>
       <c r="D2">
-        <v>167.5927348060186</v>
+        <v>98.59350049546136</v>
       </c>
       <c r="E2">
-        <v>67.84429895281495</v>
+        <v>39.91227263019978</v>
       </c>
       <c r="F2">
-        <v>442.6413001816562</v>
+        <v>260.4024291344432</v>
       </c>
       <c r="G2">
-        <v>618.8481430378069</v>
+        <v>364.0635422999385</v>
       </c>
       <c r="H2">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I2">
-        <v>1623.06303702444</v>
+        <v>954.8353425359064</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>375.425991654034</v>
+        <v>220.8601866721363</v>
       </c>
       <c r="C3">
-        <v>0.669661507914787</v>
+        <v>0.3939566490683991</v>
       </c>
       <c r="D3">
-        <v>314.8711987264595</v>
+        <v>185.2362736581395</v>
       </c>
       <c r="E3">
-        <v>29.7853019792846</v>
+        <v>17.52246115472186</v>
       </c>
       <c r="F3">
-        <v>359.5056245130203</v>
+        <v>211.4943586878726</v>
       </c>
       <c r="G3">
-        <v>202.8446691068368</v>
+        <v>119.3319388649799</v>
       </c>
       <c r="H3">
-        <v>30.23268418744719</v>
+        <v>17.78565262309424</v>
       </c>
       <c r="I3">
-        <v>1313.335131674997</v>
+        <v>772.6248283100127</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>403.4637804258068</v>
+        <v>237.354599418375</v>
       </c>
       <c r="C4">
-        <v>0.6949317534964772</v>
+        <v>0.4088229377124897</v>
       </c>
       <c r="D4">
-        <v>289.4783601194866</v>
+        <v>170.2978644921604</v>
       </c>
       <c r="E4">
-        <v>21.51160698503888</v>
+        <v>12.65511083396579</v>
       </c>
       <c r="F4">
-        <v>384.2216361982904</v>
+        <v>226.0345958476638</v>
       </c>
       <c r="G4">
-        <v>189.0924881504411</v>
+        <v>111.2416379249813</v>
       </c>
       <c r="H4">
-        <v>28.07320674548668</v>
+        <v>16.51524886430179</v>
       </c>
       <c r="I4">
-        <v>1316.536010378047</v>
+        <v>774.5078803191608</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>396.7347111205812</v>
+        <v>233.3959403592777</v>
       </c>
       <c r="C5">
-        <v>0.6191210167514068</v>
+        <v>0.3642240717802181</v>
       </c>
       <c r="D5">
-        <v>259.00695379112</v>
+        <v>152.3717734929858</v>
       </c>
       <c r="E5">
-        <v>31.44004097813375</v>
+        <v>18.49593121887307</v>
       </c>
       <c r="F5">
-        <v>453.875850947688</v>
+        <v>267.0116278434391</v>
       </c>
       <c r="G5">
-        <v>195.9685786286388</v>
+        <v>115.2867883949806</v>
       </c>
       <c r="H5">
-        <v>28.07320674548668</v>
+        <v>16.51524886430179</v>
       </c>
       <c r="I5">
-        <v>1365.7184632284</v>
+        <v>803.4415342456383</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>409.6320939555966</v>
+        <v>240.9833702225474</v>
       </c>
       <c r="C6">
-        <v>0.669661507914787</v>
+        <v>0.3939566490683991</v>
       </c>
       <c r="D6">
-        <v>325.0283341692482</v>
+        <v>191.2116373245312</v>
       </c>
       <c r="E6">
-        <v>31.44004097813375</v>
+        <v>18.49593121887307</v>
       </c>
       <c r="F6">
-        <v>395.4561869643222</v>
+        <v>232.6437945566598</v>
       </c>
       <c r="G6">
-        <v>158.1500809985507</v>
+        <v>93.03846080998436</v>
       </c>
       <c r="H6">
-        <v>19.43529697764462</v>
+        <v>11.433633829132</v>
       </c>
       <c r="I6">
-        <v>1339.811695551411</v>
+        <v>788.2007846107962</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>419.4453200257173</v>
+        <v>246.756414683731</v>
       </c>
       <c r="C7">
-        <v>0.6064858939605619</v>
+        <v>0.3567909274581728</v>
       </c>
       <c r="D7">
-        <v>355.4997404976153</v>
+        <v>209.1377283237059</v>
       </c>
       <c r="E7">
-        <v>47.98743096662519</v>
+        <v>28.23063186038521</v>
       </c>
       <c r="F7">
-        <v>339.2834331341631</v>
+        <v>199.5978010116797</v>
       </c>
       <c r="G7">
-        <v>134.0837643248582</v>
+        <v>78.88043416498675</v>
       </c>
       <c r="H7">
-        <v>30.23268418744719</v>
+        <v>17.78565262309424</v>
       </c>
       <c r="I7">
-        <v>1327.138859030387</v>
+        <v>780.7454535950411</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>462.6235147342466</v>
+        <v>272.1578103129386</v>
       </c>
       <c r="C8">
-        <v>0.6570263851239422</v>
+        <v>0.3865235047463538</v>
       </c>
       <c r="D8">
-        <v>309.7926310050648</v>
+        <v>182.2485918249438</v>
       </c>
       <c r="E8">
-        <v>57.91586495972007</v>
+        <v>34.07145224529249</v>
       </c>
       <c r="F8">
-        <v>334.7896128277501</v>
+        <v>196.9541215280813</v>
       </c>
       <c r="G8">
-        <v>85.95113097747318</v>
+        <v>50.56438087499146</v>
       </c>
       <c r="H8">
-        <v>51.82745860705233</v>
+        <v>30.48969021101868</v>
       </c>
       <c r="I8">
-        <v>1303.557239496431</v>
+        <v>766.8725705020128</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>513.6522902988727</v>
+        <v>302.1776415110928</v>
       </c>
       <c r="C9">
-        <v>0.4295941748887313</v>
+        <v>0.252726906949539</v>
       </c>
       <c r="D9">
-        <v>238.6926829055417</v>
+        <v>140.4210461602026</v>
       </c>
       <c r="E9">
-        <v>89.35590593785382</v>
+        <v>52.56738346416558</v>
       </c>
       <c r="F9">
-        <v>325.8019722149247</v>
+        <v>191.6667625608846</v>
       </c>
       <c r="G9">
-        <v>72.19895002107747</v>
+        <v>42.47407993499286</v>
       </c>
       <c r="H9">
-        <v>12.95686465176308</v>
+        <v>7.622422552754671</v>
       </c>
       <c r="I9">
-        <v>1253.088260204922</v>
+        <v>737.1820630910424</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>498.7922622498336</v>
+        <v>293.4356027555866</v>
       </c>
       <c r="C10">
-        <v>0.2779727013985909</v>
+        <v>0.1635291750849959</v>
       </c>
       <c r="D10">
-        <v>198.0641411343856</v>
+        <v>116.5195914946361</v>
       </c>
       <c r="E10">
-        <v>119.1412079171384</v>
+        <v>70.08984461888743</v>
       </c>
       <c r="F10">
-        <v>175.2589919500974</v>
+        <v>103.1034998603379</v>
       </c>
       <c r="G10">
-        <v>61.88481430378071</v>
+        <v>36.40635422999386</v>
       </c>
       <c r="H10">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I10">
-        <v>1055.578867698595</v>
+        <v>620.9888258933192</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>351.5938711980277</v>
+        <v>206.8399358378333</v>
       </c>
       <c r="C11">
-        <v>0.2400673330260557</v>
+        <v>0.1412297421188601</v>
       </c>
       <c r="D11">
-        <v>172.671302527413</v>
+        <v>101.5811823286572</v>
       </c>
       <c r="E11">
-        <v>92.66538393555211</v>
+        <v>54.514323592468</v>
       </c>
       <c r="F11">
-        <v>89.87640612825508</v>
+        <v>52.87358967196815</v>
       </c>
       <c r="G11">
-        <v>37.81849763008819</v>
+        <v>22.24832758499625</v>
       </c>
       <c r="H11">
-        <v>6.478432325881541</v>
+        <v>3.811211276377335</v>
       </c>
       <c r="I11">
-        <v>751.3439610782435</v>
+        <v>442.009800034419</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>298.0416946439418</v>
+        <v>175.3356074925175</v>
       </c>
       <c r="C12">
-        <v>0.5054049116338016</v>
+        <v>0.2973257728818106</v>
       </c>
       <c r="D12">
-        <v>116.8070575920736</v>
+        <v>68.71668216350332</v>
       </c>
       <c r="E12">
-        <v>77.77273294590981</v>
+        <v>45.75309301510708</v>
       </c>
       <c r="F12">
-        <v>85.38258582184233</v>
+        <v>50.22991018836974</v>
       </c>
       <c r="G12">
-        <v>58.44676906468177</v>
+        <v>34.38377899499422</v>
       </c>
       <c r="H12">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I12">
-        <v>639.1157224220435</v>
+        <v>375.9868013861661</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>239.1623382232198</v>
+        <v>140.6973407254161</v>
       </c>
       <c r="C13">
-        <v>0.3790536837253511</v>
+        <v>0.222994329661358</v>
       </c>
       <c r="D13">
-        <v>91.41421898510107</v>
+        <v>53.77827299752438</v>
       </c>
       <c r="E13">
-        <v>66.1895599539658</v>
+        <v>38.93880256604857</v>
       </c>
       <c r="F13">
-        <v>49.43202337054028</v>
+        <v>29.08047431958248</v>
       </c>
       <c r="G13">
-        <v>37.81849763008819</v>
+        <v>22.24832758499625</v>
       </c>
       <c r="H13">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I13">
-        <v>488.7146467305615</v>
+        <v>287.507020040814</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>181.4044933533683</v>
+        <v>106.7188504681643</v>
       </c>
       <c r="C14">
-        <v>0.4295941748887313</v>
+        <v>0.252726906949539</v>
       </c>
       <c r="D14">
-        <v>76.17851582091754</v>
+        <v>44.81522749793699</v>
       </c>
       <c r="E14">
-        <v>21.51160698503888</v>
+        <v>12.65511083396579</v>
       </c>
       <c r="F14">
-        <v>31.45674214488928</v>
+        <v>18.50575638518886</v>
       </c>
       <c r="G14">
-        <v>24.0663166736925</v>
+        <v>14.15802664499762</v>
       </c>
       <c r="H14">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I14">
-        <v>337.2067465947558</v>
+        <v>198.3761024959955</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>113.5530445256788</v>
+        <v>66.80237162226675</v>
       </c>
       <c r="C15">
-        <v>0.2779727013985909</v>
+        <v>0.1635291750849959</v>
       </c>
       <c r="D15">
-        <v>60.94281265673405</v>
+        <v>35.85218199834956</v>
       </c>
       <c r="E15">
-        <v>14.8926509896423</v>
+        <v>8.761230577360928</v>
       </c>
       <c r="F15">
-        <v>51.67893352374666</v>
+        <v>30.40231406138168</v>
       </c>
       <c r="G15">
-        <v>41.25654286918713</v>
+        <v>24.27090281999591</v>
       </c>
       <c r="H15">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I15">
-        <v>284.761434708348</v>
+        <v>167.5229340132323</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>85.23487786618853</v>
+        <v>50.14301474856564</v>
       </c>
       <c r="C16">
-        <v>0.3916888065161962</v>
+        <v>0.2304274739834033</v>
       </c>
       <c r="D16">
-        <v>30.47140632836702</v>
+        <v>17.92609099917478</v>
       </c>
       <c r="E16">
-        <v>4.964216996547433</v>
+        <v>2.920410192453644</v>
       </c>
       <c r="F16">
-        <v>20.2221913788574</v>
+        <v>11.89655767619283</v>
       </c>
       <c r="G16">
-        <v>27.50436191279144</v>
+        <v>16.18060187999728</v>
       </c>
       <c r="H16">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I16">
-        <v>170.9482207312285</v>
+        <v>100.56750672916</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>54.39331021723873</v>
+        <v>31.99916072770307</v>
       </c>
       <c r="C17">
-        <v>0.4422292976795764</v>
+        <v>0.2601600512715843</v>
       </c>
       <c r="E17">
-        <v>1.654738998849145</v>
+        <v>0.9734700641512141</v>
       </c>
       <c r="F17">
-        <v>42.69129291092116</v>
+        <v>25.11495509418487</v>
       </c>
       <c r="G17">
-        <v>27.50436191279144</v>
+        <v>16.18060187999728</v>
       </c>
       <c r="H17">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I17">
-        <v>128.8454107794406</v>
+        <v>75.79875157610047</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>32.52383497525613</v>
+        <v>19.13351878563689</v>
       </c>
       <c r="C18">
-        <v>0.3664185609345062</v>
+        <v>0.2155611853393127</v>
       </c>
       <c r="D18">
-        <v>30.47140632836702</v>
+        <v>17.92609099917478</v>
       </c>
       <c r="F18">
-        <v>31.45674214488928</v>
+        <v>18.50575638518886</v>
       </c>
       <c r="G18">
-        <v>48.132633347385</v>
+        <v>28.31605328999524</v>
       </c>
       <c r="I18">
-        <v>142.9510353568319</v>
+        <v>84.09698064533508</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>40.37441583135246</v>
+        <v>23.7519543545837</v>
       </c>
       <c r="C19">
-        <v>0.2400673330260557</v>
+        <v>0.1412297421188601</v>
       </c>
       <c r="D19">
-        <v>25.39283860697251</v>
+        <v>14.93840916597899</v>
       </c>
       <c r="E19">
-        <v>6.618955995396579</v>
+        <v>3.893880256604856</v>
       </c>
       <c r="F19">
-        <v>31.45674214488928</v>
+        <v>18.50575638518886</v>
       </c>
       <c r="G19">
-        <v>58.44676906468177</v>
+        <v>34.38377899499422</v>
       </c>
       <c r="I19">
-        <v>162.5297889763186</v>
+        <v>95.6150088994695</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>66.72993727681866</v>
+        <v>39.25670233604811</v>
       </c>
       <c r="C20">
-        <v>0.2147970874443656</v>
+        <v>0.1263634534747695</v>
       </c>
       <c r="D20">
-        <v>50.78567721394501</v>
+        <v>29.87681833195799</v>
       </c>
       <c r="E20">
-        <v>3.30947799769829</v>
+        <v>1.946940128302428</v>
       </c>
       <c r="F20">
-        <v>53.92584367695307</v>
+        <v>31.7241538031809</v>
       </c>
       <c r="G20">
-        <v>72.19895002107747</v>
+        <v>42.47407993499286</v>
       </c>
       <c r="I20">
-        <v>247.1646832739369</v>
+        <v>145.405057987957</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>151.1236814798539</v>
+        <v>88.90488470222657</v>
       </c>
       <c r="C21">
-        <v>0.2400673330260557</v>
+        <v>0.1412297421188601</v>
       </c>
       <c r="D21">
-        <v>116.8070575920736</v>
+        <v>68.71668216350332</v>
       </c>
       <c r="E21">
-        <v>43.02321397007776</v>
+        <v>25.31022166793157</v>
       </c>
       <c r="F21">
-        <v>134.8146091923826</v>
+        <v>79.31038450795218</v>
       </c>
       <c r="G21">
-        <v>113.4554928902646</v>
+        <v>66.74498275498875</v>
       </c>
       <c r="H21">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I21">
-        <v>561.623599899639</v>
+        <v>330.3987892975137</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>278.695620391419</v>
+        <v>163.9544626976126</v>
       </c>
       <c r="C22">
-        <v>0.2653375786077459</v>
+        <v>0.1560960307629506</v>
       </c>
       <c r="D22">
-        <v>208.2212765771746</v>
+        <v>122.4949551610277</v>
       </c>
       <c r="E22">
-        <v>153.8907268929705</v>
+        <v>90.53271596606292</v>
       </c>
       <c r="F22">
-        <v>231.4317457802568</v>
+        <v>136.149493405318</v>
       </c>
       <c r="G22">
-        <v>185.6544429113421</v>
+        <v>109.2190626899816</v>
       </c>
       <c r="H22">
-        <v>8.637909767842055</v>
+        <v>5.081615035169781</v>
       </c>
       <c r="I22">
-        <v>1066.797059899613</v>
+        <v>627.5884009859357</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>392.2486649170975</v>
+        <v>230.7568343198793</v>
       </c>
       <c r="C23">
-        <v>0.1642565962809855</v>
+        <v>0.09663087618658846</v>
       </c>
       <c r="D23">
-        <v>167.5927348060186</v>
+        <v>98.59350049546136</v>
       </c>
       <c r="E23">
-        <v>120.7959469159876</v>
+        <v>71.06331468303864</v>
       </c>
       <c r="F23">
-        <v>267.3823082315589</v>
+        <v>157.2989292741052</v>
       </c>
       <c r="G23">
-        <v>185.6544429113421</v>
+        <v>109.2190626899816</v>
       </c>
       <c r="H23">
-        <v>15.1163420937236</v>
+        <v>8.892826311547118</v>
       </c>
       <c r="I23">
-        <v>1148.954696472009</v>
+        <v>675.9210986501998</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>479.4461879973103</v>
+        <v>282.0544579606818</v>
       </c>
       <c r="C24">
-        <v>0.3537834381436611</v>
+        <v>0.2081280410172675</v>
       </c>
       <c r="D24">
-        <v>274.2426569553031</v>
+        <v>161.3348189925731</v>
       </c>
       <c r="E24">
-        <v>64.53482095511666</v>
+        <v>37.96533250189736</v>
       </c>
       <c r="F24">
-        <v>321.3081519085119</v>
+        <v>189.0230830772861</v>
       </c>
       <c r="G24">
-        <v>268.1675286497163</v>
+        <v>157.7608683299735</v>
       </c>
       <c r="H24">
-        <v>19.43529697764462</v>
+        <v>11.433633829132</v>
       </c>
       <c r="I24">
-        <v>1427.488426881747</v>
+        <v>839.7803227325612</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>361.1267193804302</v>
+        <v>212.4480361715546</v>
       </c>
       <c r="C25">
-        <v>0.2274322102352107</v>
+        <v>0.1337965977968148</v>
       </c>
       <c r="D25">
-        <v>259.00695379112</v>
+        <v>152.3717734929858</v>
       </c>
       <c r="E25">
-        <v>137.343336904479</v>
+        <v>80.79801532455078</v>
       </c>
       <c r="F25">
-        <v>363.9994448194331</v>
+        <v>214.1380381714709</v>
       </c>
       <c r="G25">
-        <v>429.7556548873661</v>
+        <v>252.8219043749573</v>
       </c>
       <c r="H25">
-        <v>38.87059395528924</v>
+        <v>22.86726765826401</v>
       </c>
       <c r="I25">
-        <v>1590.330135948353</v>
+        <v>935.5788317915802</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>306.7334091631916</v>
+        <v>180.4488754438514</v>
       </c>
       <c r="C26">
-        <v>0.2147970874443656</v>
+        <v>0.1263634534747695</v>
       </c>
       <c r="D26">
-        <v>243.7712506269362</v>
+        <v>143.4087279933983</v>
       </c>
       <c r="E26">
-        <v>66.1895599539658</v>
+        <v>38.93880256604857</v>
       </c>
       <c r="F26">
-        <v>431.4067494156246</v>
+        <v>253.7932304254472</v>
       </c>
       <c r="G26">
-        <v>673.8568668633898</v>
+        <v>396.4247460599332</v>
       </c>
       <c r="H26">
-        <v>15.1163420937236</v>
+        <v>8.892826311547118</v>
       </c>
       <c r="I26">
-        <v>1737.288975204276</v>
+        <v>1022.033572253701</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>367.8557886856556</v>
+        <v>216.4066952306518</v>
       </c>
       <c r="C27">
-        <v>0.5180400344246466</v>
+        <v>0.304758917203856</v>
       </c>
       <c r="D27">
-        <v>451.9925272041109</v>
+        <v>265.9036831544262</v>
       </c>
       <c r="E27">
-        <v>28.13056298043545</v>
+        <v>16.54899109057065</v>
       </c>
       <c r="F27">
-        <v>350.5179839001947</v>
+        <v>206.2069997206758</v>
       </c>
       <c r="G27">
-        <v>220.0348953023315</v>
+        <v>129.4448150399782</v>
       </c>
       <c r="H27">
-        <v>32.39216162940771</v>
+        <v>19.05605638188668</v>
       </c>
       <c r="I27">
-        <v>1451.44195973656</v>
+        <v>853.8719995353933</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>395.3328216819926</v>
+        <v>232.5712197219657</v>
       </c>
       <c r="C28">
-        <v>0.5306751572154917</v>
+        <v>0.3121920615259013</v>
       </c>
       <c r="D28">
-        <v>416.4425531543492</v>
+        <v>244.9899103220555</v>
       </c>
       <c r="E28">
-        <v>21.51160698503888</v>
+        <v>12.65511083396579</v>
       </c>
       <c r="F28">
-        <v>375.2339955854649</v>
+        <v>220.747236880467</v>
       </c>
       <c r="G28">
-        <v>206.2827143459358</v>
+        <v>121.3545140999796</v>
       </c>
       <c r="H28">
-        <v>30.23268418744719</v>
+        <v>17.78565262309424</v>
       </c>
       <c r="I28">
-        <v>1445.567051097444</v>
+        <v>850.4158365430538</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>388.8841302644848</v>
+        <v>228.7775047903309</v>
       </c>
       <c r="C29">
-        <v>0.4801346660521115</v>
+        <v>0.2824594842377201</v>
       </c>
       <c r="D29">
-        <v>370.7354436617988</v>
+        <v>218.1007738232933</v>
       </c>
       <c r="E29">
-        <v>29.7853019792846</v>
+        <v>17.52246115472186</v>
       </c>
       <c r="F29">
-        <v>442.6413001816562</v>
+        <v>260.4024291344432</v>
       </c>
       <c r="G29">
-        <v>213.1588048241335</v>
+        <v>125.3996645699789</v>
       </c>
       <c r="H29">
-        <v>30.23268418744719</v>
+        <v>17.78565262309424</v>
       </c>
       <c r="I29">
-        <v>1475.917799764857</v>
+        <v>868.2709455801</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>401.5011352117827</v>
+        <v>236.1999905261382</v>
       </c>
       <c r="C30">
-        <v>0.5180400344246466</v>
+        <v>0.304758917203856</v>
       </c>
       <c r="D30">
-        <v>467.2282303682943</v>
+        <v>274.8667286540133</v>
       </c>
       <c r="E30">
-        <v>29.7853019792846</v>
+        <v>17.52246115472186</v>
       </c>
       <c r="F30">
-        <v>386.4685463514969</v>
+        <v>227.356435589463</v>
       </c>
       <c r="G30">
-        <v>171.9022619549464</v>
+        <v>101.1287617499829</v>
       </c>
       <c r="H30">
-        <v>21.59477441960514</v>
+        <v>12.70403758792446</v>
       </c>
       <c r="I30">
-        <v>1478.998290319835</v>
+        <v>870.0831741794475</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>411.0339833941853</v>
+        <v>241.8080908598594</v>
       </c>
       <c r="C31">
-        <v>0.4674995432612665</v>
+        <v>0.2750263399156748</v>
       </c>
       <c r="D31">
-        <v>512.9353398608449</v>
+        <v>301.7558651527758</v>
       </c>
       <c r="E31">
-        <v>46.33269196777606</v>
+        <v>27.257161796234</v>
       </c>
       <c r="F31">
-        <v>330.2957925213374</v>
+        <v>194.310442044483</v>
       </c>
       <c r="G31">
-        <v>144.3979000421549</v>
+        <v>84.94815986998572</v>
       </c>
       <c r="H31">
-        <v>32.39216162940771</v>
+        <v>19.05605638188668</v>
       </c>
       <c r="I31">
-        <v>1477.855368958968</v>
+        <v>869.4108024451401</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>453.3710444395618</v>
+        <v>266.7146541066797</v>
       </c>
       <c r="C32">
-        <v>0.5054049116338016</v>
+        <v>0.2973257728818106</v>
       </c>
       <c r="D32">
-        <v>446.9139594827163</v>
+        <v>262.9160013212302</v>
       </c>
       <c r="E32">
-        <v>56.26112596087091</v>
+        <v>33.09798218114129</v>
       </c>
       <c r="F32">
-        <v>325.8019722149247</v>
+        <v>191.6667625608846</v>
       </c>
       <c r="G32">
-        <v>92.82722145567104</v>
+        <v>54.60953134499081</v>
       </c>
       <c r="H32">
-        <v>56.14641349097336</v>
+        <v>33.03049772860357</v>
       </c>
       <c r="I32">
-        <v>1431.827141956352</v>
+        <v>842.332755016412</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>503.2783084533169</v>
+        <v>296.0747087949848</v>
       </c>
       <c r="C33">
-        <v>0.3285131925619711</v>
+        <v>0.1932617523731769</v>
       </c>
       <c r="D33">
-        <v>345.342605054826</v>
+        <v>203.1623646573143</v>
       </c>
       <c r="E33">
-        <v>86.04642794015552</v>
+        <v>50.62044333586314</v>
       </c>
       <c r="F33">
-        <v>316.8143316020991</v>
+        <v>186.3794035936877</v>
       </c>
       <c r="G33">
-        <v>79.07504049927537</v>
+        <v>46.51923040499218</v>
       </c>
       <c r="H33">
-        <v>15.1163420937236</v>
+        <v>8.892826311547118</v>
       </c>
       <c r="I33">
-        <v>1346.001568835959</v>
+        <v>791.8422388507624</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>488.6986582919953</v>
+        <v>287.4976141669405</v>
       </c>
       <c r="C34">
-        <v>0.2147970874443656</v>
+        <v>0.1263634534747695</v>
       </c>
       <c r="D34">
-        <v>284.3997923980924</v>
+        <v>167.3101826589647</v>
       </c>
       <c r="E34">
-        <v>115.8317299194401</v>
+        <v>68.14290449058498</v>
       </c>
       <c r="F34">
-        <v>170.7651716436847</v>
+        <v>100.4598203767395</v>
       </c>
       <c r="G34">
-        <v>68.7609047819786</v>
+        <v>40.45150469999322</v>
       </c>
       <c r="H34">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I34">
-        <v>1130.830531564596</v>
+        <v>665.25879360549</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>344.5844240050843</v>
+        <v>202.7163326512736</v>
       </c>
       <c r="C35">
-        <v>0.1895268418626756</v>
+        <v>0.111497164830679</v>
       </c>
       <c r="D35">
-        <v>248.8498183483307</v>
+        <v>146.3964098265942</v>
       </c>
       <c r="E35">
-        <v>89.35590593785382</v>
+        <v>52.56738346416558</v>
       </c>
       <c r="F35">
-        <v>87.62949597504868</v>
+        <v>51.55174993016896</v>
       </c>
       <c r="G35">
-        <v>41.25654286918713</v>
+        <v>24.27090281999591</v>
       </c>
       <c r="H35">
-        <v>6.478432325881541</v>
+        <v>3.811211276377335</v>
       </c>
       <c r="I35">
-        <v>818.3441463032487</v>
+        <v>481.4254871334062</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>292.1537590018697</v>
+        <v>171.8717808158072</v>
       </c>
       <c r="C36">
-        <v>0.3916888065161962</v>
+        <v>0.2304274739834033</v>
       </c>
       <c r="D36">
-        <v>167.5927348060186</v>
+        <v>98.59350049546136</v>
       </c>
       <c r="E36">
-        <v>76.11799394706064</v>
+        <v>44.77962295095585</v>
       </c>
       <c r="F36">
-        <v>83.13567566863595</v>
+        <v>48.90807044657055</v>
       </c>
       <c r="G36">
-        <v>65.32285954287966</v>
+        <v>38.42892946499356</v>
       </c>
       <c r="H36">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I36">
-        <v>686.8741892149411</v>
+        <v>404.0827354065643</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>234.3959141320184</v>
+        <v>137.8932905585556</v>
       </c>
       <c r="C37">
-        <v>0.2906078241894359</v>
+        <v>0.1709623194070411</v>
       </c>
       <c r="D37">
-        <v>132.0427607562571</v>
+        <v>77.67972766309072</v>
       </c>
       <c r="E37">
-        <v>64.53482095511666</v>
+        <v>37.96533250189736</v>
       </c>
       <c r="F37">
-        <v>47.18511321733391</v>
+        <v>27.75863457778327</v>
       </c>
       <c r="G37">
-        <v>41.25654286918713</v>
+        <v>24.27090281999591</v>
       </c>
       <c r="H37">
-        <v>4.318954883921028</v>
+        <v>2.540807517584891</v>
       </c>
       <c r="I37">
-        <v>524.0247146380236</v>
+        <v>308.2796579583148</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>177.7595808130378</v>
+        <v>104.5745768111533</v>
       </c>
       <c r="C38">
-        <v>0.3285131925619711</v>
+        <v>0.1932617523731769</v>
       </c>
       <c r="D38">
-        <v>111.7284898706791</v>
+        <v>65.72900033030754</v>
       </c>
       <c r="E38">
-        <v>21.51160698503888</v>
+        <v>12.65511083396579</v>
       </c>
       <c r="F38">
-        <v>31.45674214488928</v>
+        <v>18.50575638518886</v>
       </c>
       <c r="G38">
-        <v>27.50436191279144</v>
+        <v>16.18060187999728</v>
       </c>
       <c r="H38">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I38">
-        <v>372.448772360959</v>
+        <v>219.1087117517784</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>111.310021423937</v>
+        <v>65.48281860256769</v>
       </c>
       <c r="C39">
-        <v>0.2147970874443656</v>
+        <v>0.1263634534747695</v>
       </c>
       <c r="D39">
-        <v>86.33565126370651</v>
+        <v>50.79059116432858</v>
       </c>
       <c r="E39">
-        <v>14.8926509896423</v>
+        <v>8.761230577360928</v>
       </c>
       <c r="F39">
-        <v>49.43202337054028</v>
+        <v>29.08047431958248</v>
       </c>
       <c r="G39">
-        <v>44.69458810828606</v>
+        <v>26.29347805499557</v>
       </c>
       <c r="H39">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I39">
-        <v>309.039209685517</v>
+        <v>181.8053599311025</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>83.55261053988211</v>
+        <v>49.1533499837913</v>
       </c>
       <c r="C40">
-        <v>0.3032429469802809</v>
+        <v>0.1783954637290864</v>
       </c>
       <c r="D40">
-        <v>45.70710949255054</v>
+        <v>26.88913649876219</v>
       </c>
       <c r="E40">
-        <v>4.964216996547433</v>
+        <v>2.920410192453644</v>
       </c>
       <c r="F40">
-        <v>20.2221913788574</v>
+        <v>11.89655767619283</v>
       </c>
       <c r="G40">
-        <v>30.94240715189036</v>
+        <v>18.20317711499693</v>
       </c>
       <c r="H40">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I40">
-        <v>187.8512559486686</v>
+        <v>110.5114306887184</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>53.2717986663678</v>
+        <v>31.33938421785353</v>
       </c>
       <c r="C41">
-        <v>0.3411483153528161</v>
+        <v>0.2006948966952222</v>
       </c>
       <c r="E41">
-        <v>1.654738998849145</v>
+        <v>0.9734700641512141</v>
       </c>
       <c r="F41">
-        <v>42.69129291092116</v>
+        <v>25.11495509418487</v>
       </c>
       <c r="G41">
-        <v>30.94240715189036</v>
+        <v>18.20317711499693</v>
       </c>
       <c r="H41">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I41">
-        <v>131.0608634853418</v>
+        <v>77.1020851466742</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>31.96307919982069</v>
+        <v>18.80363053071211</v>
       </c>
       <c r="C42">
-        <v>0.2779727013985909</v>
+        <v>0.1635291750849959</v>
       </c>
       <c r="D42">
-        <v>45.70710949255054</v>
+        <v>26.88913649876219</v>
       </c>
       <c r="F42">
-        <v>31.45674214488928</v>
+        <v>18.50575638518886</v>
       </c>
       <c r="G42">
-        <v>51.57067858648396</v>
+        <v>30.3386285249949</v>
       </c>
       <c r="I42">
-        <v>160.9755821251431</v>
+        <v>94.70068111474305</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>39.53328216819926</v>
+        <v>23.25712197219658</v>
       </c>
       <c r="C43">
-        <v>0.1895268418626756</v>
+        <v>0.111497164830679</v>
       </c>
       <c r="D43">
-        <v>35.54997404976154</v>
+        <v>20.91377283237059</v>
       </c>
       <c r="E43">
-        <v>6.618955995396579</v>
+        <v>3.893880256604856</v>
       </c>
       <c r="F43">
-        <v>31.45674214488928</v>
+        <v>18.50575638518886</v>
       </c>
       <c r="G43">
-        <v>65.32285954287966</v>
+        <v>38.42892946499356</v>
       </c>
       <c r="I43">
-        <v>178.671340742989</v>
+        <v>105.1109580761851</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>65.32804783822998</v>
+        <v>38.43198169873619</v>
       </c>
       <c r="C44">
-        <v>0.1642565962809855</v>
+        <v>0.09663087618658846</v>
       </c>
       <c r="D44">
-        <v>71.09994809952309</v>
+        <v>41.82754566474118</v>
       </c>
       <c r="E44">
-        <v>3.30947799769829</v>
+        <v>1.946940128302428</v>
       </c>
       <c r="F44">
-        <v>51.67893352374666</v>
+        <v>30.40231406138168</v>
       </c>
       <c r="G44">
-        <v>79.07504049927537</v>
+        <v>46.51923040499218</v>
       </c>
       <c r="I44">
-        <v>270.6557045547544</v>
+        <v>159.2246428343402</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>148.039524714959</v>
+        <v>87.09049930014032</v>
       </c>
       <c r="C45">
-        <v>0.1895268418626756</v>
+        <v>0.111497164830679</v>
       </c>
       <c r="D45">
-        <v>167.5927348060186</v>
+        <v>98.59350049546136</v>
       </c>
       <c r="E45">
-        <v>41.3684749712286</v>
+        <v>24.33675160378036</v>
       </c>
       <c r="F45">
-        <v>130.3207888859699</v>
+        <v>76.66670502435383</v>
       </c>
       <c r="G45">
-        <v>123.7696286075614</v>
+        <v>72.81270845998772</v>
       </c>
       <c r="H45">
-        <v>2.159477441960514</v>
+        <v>1.270403758792445</v>
       </c>
       <c r="I45">
-        <v>613.4401562695606</v>
+        <v>360.8820658073467</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>273.0880626370644</v>
+        <v>160.6555801483649</v>
       </c>
       <c r="C46">
-        <v>0.2021619646535207</v>
+        <v>0.1189303091527243</v>
       </c>
       <c r="D46">
-        <v>299.6354955622757</v>
+        <v>176.2732281585521</v>
       </c>
       <c r="E46">
-        <v>148.926509896423</v>
+        <v>87.61230577360928</v>
       </c>
       <c r="F46">
-        <v>224.6910153206377</v>
+        <v>132.1839741799204</v>
       </c>
       <c r="G46">
-        <v>202.8446691068368</v>
+        <v>119.3319388649799</v>
       </c>
       <c r="H46">
-        <v>8.637909767842055</v>
+        <v>5.081615035169781</v>
       </c>
       <c r="I46">
-        <v>1158.025824255733</v>
+        <v>681.2575724697491</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>384.3980840610014</v>
+        <v>226.1383987509326</v>
       </c>
       <c r="C47">
-        <v>0.1263512279084504</v>
+        <v>0.07433144322045265</v>
       </c>
       <c r="D47">
-        <v>243.7712506269362</v>
+        <v>143.4087279933983</v>
       </c>
       <c r="E47">
-        <v>117.4864689182893</v>
+        <v>69.11637455473621</v>
       </c>
       <c r="F47">
-        <v>260.6415777719398</v>
+        <v>153.3334100487077</v>
       </c>
       <c r="G47">
-        <v>202.8446691068368</v>
+        <v>119.3319388649799</v>
       </c>
       <c r="H47">
-        <v>17.27581953568411</v>
+        <v>10.16323007033956</v>
       </c>
       <c r="I47">
-        <v>1226.544221248596</v>
+        <v>721.5664117263146</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>469.9133398149079</v>
+        <v>276.4463576269605</v>
       </c>
       <c r="C48">
-        <v>0.2779727013985909</v>
+        <v>0.1635291750849959</v>
       </c>
       <c r="D48">
-        <v>396.1282822687713</v>
+        <v>233.0391829892722</v>
       </c>
       <c r="E48">
-        <v>62.8800819562675</v>
+        <v>36.99186243774614</v>
       </c>
       <c r="F48">
-        <v>312.3205112956865</v>
+        <v>183.7357241100893</v>
       </c>
       <c r="G48">
-        <v>292.2338453234088</v>
+        <v>171.9188949749711</v>
       </c>
       <c r="H48">
-        <v>21.59477441960514</v>
+        <v>12.70403758792446</v>
       </c>
       <c r="I48">
-        <v>1555.348807780046</v>
+        <v>914.9995889020486</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>353.8368942997695</v>
+        <v>208.1594888575324</v>
       </c>
       <c r="C49">
-        <v>0.1768917190718305</v>
+        <v>0.1040640205086338</v>
       </c>
       <c r="D49">
-        <v>370.7354436617988</v>
+        <v>218.1007738232933</v>
       </c>
       <c r="E49">
-        <v>134.0338589067807</v>
+        <v>78.85107519624835</v>
       </c>
       <c r="F49">
-        <v>355.0118042066076</v>
+        <v>208.8506792042742</v>
       </c>
       <c r="G49">
-        <v>467.5741525174541</v>
+        <v>275.0702319599538</v>
       </c>
       <c r="H49">
-        <v>43.18954883921027</v>
+        <v>25.40807517584891</v>
       </c>
       <c r="I49">
-        <v>1724.558594150693</v>
+        <v>1014.54438823766</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_NOx.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>184.0776462480239</v>
+        <v>242.8907400021367</v>
       </c>
       <c r="C2">
-        <v>0.1635291750849959</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D2">
-        <v>98.59350049546136</v>
+        <v>167.5526098882932</v>
       </c>
       <c r="E2">
-        <v>39.91227263019978</v>
+        <v>67.84429895281495</v>
       </c>
       <c r="F2">
-        <v>260.4024291344432</v>
+        <v>442.525041564777</v>
       </c>
       <c r="G2">
-        <v>364.0635422999385</v>
+        <v>618.7252465415066</v>
       </c>
       <c r="H2">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I2">
-        <v>954.8353425359064</v>
+        <v>1552.77277430269</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>220.8601866721363</v>
+        <v>291.4253591961118</v>
       </c>
       <c r="C3">
-        <v>0.3939566490683991</v>
+        <v>0.669661507914787</v>
       </c>
       <c r="D3">
-        <v>185.2362736581395</v>
+        <v>314.7958125173993</v>
       </c>
       <c r="E3">
-        <v>17.52246115472186</v>
+        <v>29.7853019792846</v>
       </c>
       <c r="F3">
-        <v>211.4943586878726</v>
+        <v>359.411201270885</v>
       </c>
       <c r="G3">
-        <v>119.3319388649799</v>
+        <v>202.8043863663828</v>
       </c>
       <c r="H3">
-        <v>17.78565262309424</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I3">
-        <v>772.6248283100127</v>
+        <v>1229.124407025425</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>237.354599418375</v>
+        <v>313.1897624221101</v>
       </c>
       <c r="C4">
-        <v>0.4088229377124897</v>
+        <v>0.6949317534964772</v>
       </c>
       <c r="D4">
-        <v>170.2978644921604</v>
+        <v>289.4090534434157</v>
       </c>
       <c r="E4">
-        <v>12.65511083396579</v>
+        <v>21.51160698503888</v>
       </c>
       <c r="F4">
-        <v>226.0345958476638</v>
+        <v>384.1207213582583</v>
       </c>
       <c r="G4">
-        <v>111.2416379249813</v>
+        <v>189.0549364432381</v>
       </c>
       <c r="H4">
-        <v>16.51524886430179</v>
+        <v>28.07320674548668</v>
       </c>
       <c r="I4">
-        <v>774.5078803191608</v>
+        <v>1226.054219151044</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>233.3959403592777</v>
+        <v>307.9663056478704</v>
       </c>
       <c r="C5">
-        <v>0.3642240717802181</v>
+        <v>0.6191210167514068</v>
       </c>
       <c r="D5">
-        <v>152.3717734929858</v>
+        <v>258.944942554635</v>
       </c>
       <c r="E5">
-        <v>18.49593121887307</v>
+        <v>31.44004097813375</v>
       </c>
       <c r="F5">
-        <v>267.0116278434391</v>
+        <v>453.7566416044923</v>
       </c>
       <c r="G5">
-        <v>115.2867883949806</v>
+        <v>195.9296614048103</v>
       </c>
       <c r="H5">
-        <v>16.51524886430179</v>
+        <v>28.07320674548668</v>
       </c>
       <c r="I5">
-        <v>803.4415342456383</v>
+        <v>1276.72991995218</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>240.9833702225474</v>
+        <v>317.9779311318295</v>
       </c>
       <c r="C6">
-        <v>0.3939566490683991</v>
+        <v>0.669661507914787</v>
       </c>
       <c r="D6">
-        <v>191.2116373245312</v>
+        <v>324.9505161469929</v>
       </c>
       <c r="E6">
-        <v>18.49593121887307</v>
+        <v>31.44004097813375</v>
       </c>
       <c r="F6">
-        <v>232.6437945566598</v>
+        <v>395.3523213979736</v>
       </c>
       <c r="G6">
-        <v>93.03846080998436</v>
+        <v>158.1186741161627</v>
       </c>
       <c r="H6">
-        <v>11.433633829132</v>
+        <v>19.43529697764462</v>
       </c>
       <c r="I6">
-        <v>788.2007846107962</v>
+        <v>1247.944442256652</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>246.756414683731</v>
+        <v>325.5954722609288</v>
       </c>
       <c r="C7">
-        <v>0.3567909274581728</v>
+        <v>0.6064858939605619</v>
       </c>
       <c r="D7">
-        <v>209.1377283237059</v>
+        <v>355.4146270357734</v>
       </c>
       <c r="E7">
-        <v>28.23063186038521</v>
+        <v>47.98743096662519</v>
       </c>
       <c r="F7">
-        <v>199.5978010116797</v>
+        <v>339.1943211993979</v>
       </c>
       <c r="G7">
-        <v>78.88043416498675</v>
+        <v>134.0571367506597</v>
       </c>
       <c r="H7">
-        <v>17.78565262309424</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I7">
-        <v>780.7454535950411</v>
+        <v>1233.088158294793</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>272.1578103129386</v>
+        <v>359.1126532289655</v>
       </c>
       <c r="C8">
-        <v>0.3865235047463538</v>
+        <v>0.6570263851239422</v>
       </c>
       <c r="D8">
-        <v>182.2485918249438</v>
+        <v>309.7184607026026</v>
       </c>
       <c r="E8">
-        <v>34.07145224529249</v>
+        <v>57.91586495972007</v>
       </c>
       <c r="F8">
-        <v>196.9541215280813</v>
+        <v>334.7016811835117</v>
       </c>
       <c r="G8">
-        <v>50.56438087499146</v>
+        <v>85.93406201965372</v>
       </c>
       <c r="H8">
-        <v>30.48969021101868</v>
+        <v>51.82745860705233</v>
       </c>
       <c r="I8">
-        <v>766.8725705020128</v>
+        <v>1199.86720708663</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>302.1776415110928</v>
+        <v>398.7238671002817</v>
       </c>
       <c r="C9">
-        <v>0.252726906949539</v>
+        <v>0.4295941748887313</v>
       </c>
       <c r="D9">
-        <v>140.4210461602026</v>
+        <v>238.6355352954478</v>
       </c>
       <c r="E9">
-        <v>52.56738346416558</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F9">
-        <v>191.6667625608846</v>
+        <v>325.7164011517395</v>
       </c>
       <c r="G9">
-        <v>42.47407993499286</v>
+        <v>72.18461209650908</v>
       </c>
       <c r="H9">
-        <v>7.622422552754671</v>
+        <v>12.95686465176308</v>
       </c>
       <c r="I9">
-        <v>737.1820630910424</v>
+        <v>1138.002780408484</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>293.4356027555866</v>
+        <v>387.1887333905029</v>
       </c>
       <c r="C10">
-        <v>0.1635291750849959</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D10">
-        <v>116.5195914946361</v>
+        <v>198.0167207770738</v>
       </c>
       <c r="E10">
-        <v>70.08984461888743</v>
+        <v>119.1412079171384</v>
       </c>
       <c r="F10">
-        <v>103.1034998603379</v>
+        <v>175.2129606195564</v>
       </c>
       <c r="G10">
-        <v>36.40635422999386</v>
+        <v>61.87252465415065</v>
       </c>
       <c r="H10">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I10">
-        <v>620.9888258933192</v>
+        <v>943.8695975017812</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>206.8399358378333</v>
+        <v>272.9256164540139</v>
       </c>
       <c r="C11">
-        <v>0.1412297421188601</v>
+        <v>0.2400673330260557</v>
       </c>
       <c r="D11">
-        <v>101.5811823286572</v>
+        <v>172.6299617030899</v>
       </c>
       <c r="E11">
-        <v>54.514323592468</v>
+        <v>92.66538393555211</v>
       </c>
       <c r="F11">
-        <v>52.87358967196815</v>
+        <v>89.85280031772125</v>
       </c>
       <c r="G11">
-        <v>22.24832758499625</v>
+        <v>37.81098728864763</v>
       </c>
       <c r="H11">
-        <v>3.811211276377335</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I11">
-        <v>442.009800034419</v>
+        <v>672.6032493579324</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>175.3356074925175</v>
+        <v>231.3556062923578</v>
       </c>
       <c r="C12">
-        <v>0.2973257728818106</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D12">
-        <v>68.71668216350332</v>
+        <v>116.7790917403256</v>
       </c>
       <c r="E12">
-        <v>45.75309301510708</v>
+        <v>77.77273294590981</v>
       </c>
       <c r="F12">
-        <v>50.22991018836974</v>
+        <v>85.36016030183517</v>
       </c>
       <c r="G12">
-        <v>34.38377899499422</v>
+        <v>58.4351621733645</v>
       </c>
       <c r="H12">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I12">
-        <v>375.9868013861661</v>
+        <v>572.3676358073872</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>140.6973407254161</v>
+        <v>185.6503595177622</v>
       </c>
       <c r="C13">
-        <v>0.222994329661358</v>
+        <v>0.3790536837253511</v>
       </c>
       <c r="D13">
-        <v>53.77827299752438</v>
+        <v>91.39233266634177</v>
       </c>
       <c r="E13">
-        <v>38.93880256604857</v>
+        <v>66.1895599539658</v>
       </c>
       <c r="F13">
-        <v>29.08047431958248</v>
+        <v>49.4190401747467</v>
       </c>
       <c r="G13">
-        <v>22.24832758499625</v>
+        <v>37.81098728864763</v>
       </c>
       <c r="H13">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I13">
-        <v>287.507020040814</v>
+        <v>435.1602881691106</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>106.7188504681643</v>
+        <v>140.8156888722065</v>
       </c>
       <c r="C14">
-        <v>0.252726906949539</v>
+        <v>0.4295941748887313</v>
       </c>
       <c r="D14">
-        <v>44.81522749793699</v>
+        <v>76.16027722195143</v>
       </c>
       <c r="E14">
-        <v>12.65511083396579</v>
+        <v>21.51160698503888</v>
       </c>
       <c r="F14">
-        <v>18.50575638518886</v>
+        <v>31.44848011120244</v>
       </c>
       <c r="G14">
-        <v>14.15802664499762</v>
+        <v>24.06153736550304</v>
       </c>
       <c r="H14">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I14">
-        <v>198.3761024959955</v>
+        <v>296.5866621727516</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>66.80237162226675</v>
+        <v>88.14583306529158</v>
       </c>
       <c r="C15">
-        <v>0.1635291750849959</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D15">
-        <v>35.85218199834956</v>
+        <v>60.92822177756116</v>
       </c>
       <c r="E15">
-        <v>8.761230577360928</v>
+        <v>14.8926509896423</v>
       </c>
       <c r="F15">
-        <v>30.40231406138168</v>
+        <v>51.6653601826897</v>
       </c>
       <c r="G15">
-        <v>24.27090281999591</v>
+        <v>41.24834976943377</v>
       </c>
       <c r="H15">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I15">
-        <v>167.5229340132323</v>
+        <v>259.3178659279777</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>50.14301474856564</v>
+        <v>66.16378580703372</v>
       </c>
       <c r="C16">
-        <v>0.2304274739834033</v>
+        <v>0.3916888065161962</v>
       </c>
       <c r="D16">
-        <v>17.92609099917478</v>
+        <v>30.46411088878058</v>
       </c>
       <c r="E16">
-        <v>2.920410192453644</v>
+        <v>4.964216996547433</v>
       </c>
       <c r="F16">
-        <v>11.89655767619283</v>
+        <v>20.21688007148728</v>
       </c>
       <c r="G16">
-        <v>16.18060187999728</v>
+        <v>27.49889984628919</v>
       </c>
       <c r="H16">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I16">
-        <v>100.56750672916</v>
+        <v>151.8590598586149</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>31.99916072770307</v>
+        <v>42.22294225843594</v>
       </c>
       <c r="C17">
-        <v>0.2601600512715843</v>
+        <v>0.4422292976795764</v>
       </c>
       <c r="E17">
-        <v>0.9734700641512141</v>
+        <v>1.654738998849145</v>
       </c>
       <c r="F17">
-        <v>25.11495509418487</v>
+        <v>42.68008015091758</v>
       </c>
       <c r="G17">
-        <v>16.18060187999728</v>
+        <v>27.49889984628919</v>
       </c>
       <c r="H17">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I17">
-        <v>75.79875157610047</v>
+        <v>116.658367994132</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>19.13351878563689</v>
+        <v>25.24670774215757</v>
       </c>
       <c r="C18">
-        <v>0.2155611853393127</v>
+        <v>0.3664185609345062</v>
       </c>
       <c r="D18">
-        <v>17.92609099917478</v>
+        <v>30.46411088878058</v>
       </c>
       <c r="F18">
-        <v>18.50575638518886</v>
+        <v>31.44848011120244</v>
       </c>
       <c r="G18">
-        <v>28.31605328999524</v>
+        <v>48.12307473100608</v>
       </c>
       <c r="I18">
-        <v>84.09698064533508</v>
+        <v>135.6487920340812</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>23.7519543545837</v>
+        <v>31.34074064543701</v>
       </c>
       <c r="C19">
-        <v>0.1412297421188601</v>
+        <v>0.2400673330260557</v>
       </c>
       <c r="D19">
-        <v>14.93840916597899</v>
+        <v>25.38675907398382</v>
       </c>
       <c r="E19">
-        <v>3.893880256604856</v>
+        <v>6.618955995396579</v>
       </c>
       <c r="F19">
-        <v>18.50575638518886</v>
+        <v>31.44848011120244</v>
       </c>
       <c r="G19">
-        <v>34.38377899499422</v>
+        <v>58.4351621733645</v>
       </c>
       <c r="I19">
-        <v>95.6150088994695</v>
+        <v>153.4701653324104</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>39.25670233604811</v>
+        <v>51.79927967787505</v>
       </c>
       <c r="C20">
-        <v>0.1263634534747695</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D20">
-        <v>29.87681833195799</v>
+        <v>50.77351814796764</v>
       </c>
       <c r="E20">
-        <v>1.946940128302428</v>
+        <v>3.30947799769829</v>
       </c>
       <c r="F20">
-        <v>31.7241538031809</v>
+        <v>53.91168019063275</v>
       </c>
       <c r="G20">
-        <v>42.47407993499286</v>
+        <v>72.18461209650908</v>
       </c>
       <c r="I20">
-        <v>145.405057987957</v>
+        <v>232.1933651981272</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>88.90488470222657</v>
+        <v>117.3101333881288</v>
       </c>
       <c r="C21">
-        <v>0.1412297421188601</v>
+        <v>0.2400673330260557</v>
       </c>
       <c r="D21">
-        <v>68.71668216350332</v>
+        <v>116.7790917403256</v>
       </c>
       <c r="E21">
-        <v>25.31022166793157</v>
+        <v>43.02321397007776</v>
       </c>
       <c r="F21">
-        <v>79.31038450795218</v>
+        <v>134.7792004765819</v>
       </c>
       <c r="G21">
-        <v>66.74498275498875</v>
+        <v>113.4329618659428</v>
       </c>
       <c r="H21">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I21">
-        <v>330.3987892975137</v>
+        <v>527.7241462160434</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>163.9544626976126</v>
+        <v>216.3381680664193</v>
       </c>
       <c r="C22">
-        <v>0.1560960307629506</v>
+        <v>0.2653375786077459</v>
       </c>
       <c r="D22">
-        <v>122.4949551610277</v>
+        <v>208.1714244066673</v>
       </c>
       <c r="E22">
-        <v>90.53271596606292</v>
+        <v>153.8907268929705</v>
       </c>
       <c r="F22">
-        <v>136.149493405318</v>
+        <v>231.3709608181323</v>
       </c>
       <c r="G22">
-        <v>109.2190626899816</v>
+        <v>185.617573962452</v>
       </c>
       <c r="H22">
-        <v>5.081615035169781</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I22">
-        <v>627.5884009859357</v>
+        <v>1004.292101493091</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>230.7568343198793</v>
+        <v>304.4840011317106</v>
       </c>
       <c r="C23">
-        <v>0.09663087618658846</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D23">
-        <v>98.59350049546136</v>
+        <v>167.5526098882932</v>
       </c>
       <c r="E23">
-        <v>71.06331468303864</v>
+        <v>120.7959469159876</v>
       </c>
       <c r="F23">
-        <v>157.2989292741052</v>
+        <v>267.3120809452208</v>
       </c>
       <c r="G23">
-        <v>109.2190626899816</v>
+        <v>185.617573962452</v>
       </c>
       <c r="H23">
-        <v>8.892826311547118</v>
+        <v>15.1163420937236</v>
       </c>
       <c r="I23">
-        <v>675.9210986501998</v>
+        <v>1061.042811533669</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>282.0544579606818</v>
+        <v>372.1712951645644</v>
       </c>
       <c r="C24">
-        <v>0.2081280410172675</v>
+        <v>0.3537834381436611</v>
       </c>
       <c r="D24">
-        <v>161.3348189925731</v>
+        <v>274.1769979990251</v>
       </c>
       <c r="E24">
-        <v>37.96533250189736</v>
+        <v>64.53482095511666</v>
       </c>
       <c r="F24">
-        <v>189.0230830772861</v>
+        <v>321.2237611358535</v>
       </c>
       <c r="G24">
-        <v>157.7608683299735</v>
+        <v>268.1142735013195</v>
       </c>
       <c r="H24">
-        <v>11.433633829132</v>
+        <v>19.43529697764462</v>
       </c>
       <c r="I24">
-        <v>839.7803227325612</v>
+        <v>1320.010229171667</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>212.4480361715546</v>
+        <v>280.3255135508531</v>
       </c>
       <c r="C25">
-        <v>0.1337965977968148</v>
+        <v>0.2274322102352107</v>
       </c>
       <c r="D25">
-        <v>152.3717734929858</v>
+        <v>258.944942554635</v>
       </c>
       <c r="E25">
-        <v>80.79801532455078</v>
+        <v>137.343336904479</v>
       </c>
       <c r="F25">
-        <v>214.1380381714709</v>
+        <v>363.9038412867711</v>
       </c>
       <c r="G25">
-        <v>252.8219043749573</v>
+        <v>429.6703100982685</v>
       </c>
       <c r="H25">
-        <v>22.86726765826401</v>
+        <v>38.87059395528924</v>
       </c>
       <c r="I25">
-        <v>935.5788317915802</v>
+        <v>1509.285970560531</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>180.4488754438514</v>
+        <v>238.1025712924172</v>
       </c>
       <c r="C26">
-        <v>0.1263634534747695</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D26">
-        <v>143.4087279933983</v>
+        <v>243.7128871102446</v>
       </c>
       <c r="E26">
-        <v>38.93880256604857</v>
+        <v>66.1895599539658</v>
       </c>
       <c r="F26">
-        <v>253.7932304254472</v>
+        <v>431.293441525062</v>
       </c>
       <c r="G26">
-        <v>396.4247460599332</v>
+        <v>673.723046234085</v>
       </c>
       <c r="H26">
-        <v>8.892826311547118</v>
+        <v>15.1163420937236</v>
       </c>
       <c r="I26">
-        <v>1022.033572253701</v>
+        <v>1668.352645296943</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>216.4066952306518</v>
+        <v>285.5489703250927</v>
       </c>
       <c r="C27">
-        <v>0.304758917203856</v>
+        <v>0.5180400344246466</v>
       </c>
       <c r="D27">
-        <v>265.9036831544262</v>
+        <v>451.8843115169119</v>
       </c>
       <c r="E27">
-        <v>16.54899109057065</v>
+        <v>28.13056298043545</v>
       </c>
       <c r="F27">
-        <v>206.2069997206758</v>
+        <v>350.4259212391128</v>
       </c>
       <c r="G27">
-        <v>129.4448150399782</v>
+        <v>219.9911987703135</v>
       </c>
       <c r="H27">
-        <v>19.05605638188668</v>
+        <v>32.39216162940771</v>
       </c>
       <c r="I27">
-        <v>853.8719995353933</v>
+        <v>1368.891166495699</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>232.5712197219657</v>
+        <v>306.8780854865706</v>
       </c>
       <c r="C28">
-        <v>0.3121920615259013</v>
+        <v>0.5306751572154917</v>
       </c>
       <c r="D28">
-        <v>244.9899103220555</v>
+        <v>416.3428488133346</v>
       </c>
       <c r="E28">
-        <v>12.65511083396579</v>
+        <v>21.51160698503888</v>
       </c>
       <c r="F28">
-        <v>220.747236880467</v>
+        <v>375.1354413264861</v>
       </c>
       <c r="G28">
-        <v>121.3545140999796</v>
+        <v>206.2417488471689</v>
       </c>
       <c r="H28">
-        <v>17.78565262309424</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I28">
-        <v>850.4158365430538</v>
+        <v>1356.873090803262</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>228.7775047903309</v>
+        <v>301.8722727445909</v>
       </c>
       <c r="C29">
-        <v>0.2824594842377201</v>
+        <v>0.4801346660521115</v>
       </c>
       <c r="D29">
-        <v>218.1007738232933</v>
+        <v>370.6466824801637</v>
       </c>
       <c r="E29">
-        <v>17.52246115472186</v>
+        <v>29.7853019792846</v>
       </c>
       <c r="F29">
-        <v>260.4024291344432</v>
+        <v>442.525041564777</v>
       </c>
       <c r="G29">
-        <v>125.3996645699789</v>
+        <v>213.1164738087411</v>
       </c>
       <c r="H29">
-        <v>17.78565262309424</v>
+        <v>30.23268418744719</v>
       </c>
       <c r="I29">
-        <v>868.2709455801</v>
+        <v>1388.658591431057</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>236.1999905261382</v>
+        <v>311.6662541962902</v>
       </c>
       <c r="C30">
-        <v>0.304758917203856</v>
+        <v>0.5180400344246466</v>
       </c>
       <c r="D30">
-        <v>274.8667286540133</v>
+        <v>467.1163669613024</v>
       </c>
       <c r="E30">
-        <v>17.52246115472186</v>
+        <v>29.7853019792846</v>
       </c>
       <c r="F30">
-        <v>227.356435589463</v>
+        <v>386.3670413662014</v>
       </c>
       <c r="G30">
-        <v>101.1287617499829</v>
+        <v>171.8681240393074</v>
       </c>
       <c r="H30">
-        <v>12.70403758792446</v>
+        <v>21.59477441960514</v>
       </c>
       <c r="I30">
-        <v>870.0831741794475</v>
+        <v>1388.915902996416</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>241.8080908598594</v>
+        <v>319.0661512931296</v>
       </c>
       <c r="C31">
-        <v>0.2750263399156748</v>
+        <v>0.4674995432612665</v>
       </c>
       <c r="D31">
-        <v>301.7558651527758</v>
+        <v>512.812533294473</v>
       </c>
       <c r="E31">
-        <v>27.257161796234</v>
+        <v>46.33269196777606</v>
       </c>
       <c r="F31">
-        <v>194.310442044483</v>
+        <v>330.2090411676257</v>
       </c>
       <c r="G31">
-        <v>84.94815986998572</v>
+        <v>144.3692241930182</v>
       </c>
       <c r="H31">
-        <v>19.05605638188668</v>
+        <v>32.39216162940771</v>
       </c>
       <c r="I31">
-        <v>869.4108024451401</v>
+        <v>1385.649303088692</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>266.7146541066797</v>
+        <v>351.9304001643862</v>
       </c>
       <c r="C32">
-        <v>0.2973257728818106</v>
+        <v>0.5054049116338016</v>
       </c>
       <c r="D32">
-        <v>262.9160013212302</v>
+        <v>446.806959702115</v>
       </c>
       <c r="E32">
-        <v>33.09798218114129</v>
+        <v>56.26112596087091</v>
       </c>
       <c r="F32">
-        <v>191.6667625608846</v>
+        <v>325.7164011517395</v>
       </c>
       <c r="G32">
-        <v>54.60953134499081</v>
+        <v>92.80878698122598</v>
       </c>
       <c r="H32">
-        <v>33.03049772860357</v>
+        <v>56.14641349097336</v>
       </c>
       <c r="I32">
-        <v>842.332755016412</v>
+        <v>1330.175492362945</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>296.0747087949848</v>
+        <v>390.6710379066625</v>
       </c>
       <c r="C33">
-        <v>0.1932617523731769</v>
+        <v>0.3285131925619711</v>
       </c>
       <c r="D33">
-        <v>203.1623646573143</v>
+        <v>345.2599234061798</v>
       </c>
       <c r="E33">
-        <v>50.62044333586314</v>
+        <v>86.04642794015552</v>
       </c>
       <c r="F33">
-        <v>186.3794035936877</v>
+        <v>316.7311211199676</v>
       </c>
       <c r="G33">
-        <v>46.51923040499218</v>
+        <v>79.05933705808137</v>
       </c>
       <c r="H33">
-        <v>8.892826311547118</v>
+        <v>15.1163420937236</v>
       </c>
       <c r="I33">
-        <v>791.8422388507624</v>
+        <v>1233.212702717332</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>287.4976141669405</v>
+        <v>379.3535482291437</v>
       </c>
       <c r="C34">
-        <v>0.1263634534747695</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D34">
-        <v>167.3101826589647</v>
+        <v>284.3317016286188</v>
       </c>
       <c r="E34">
-        <v>68.14290449058498</v>
+        <v>115.8317299194401</v>
       </c>
       <c r="F34">
-        <v>100.4598203767395</v>
+        <v>170.7203206036703</v>
       </c>
       <c r="G34">
-        <v>40.45150469999322</v>
+        <v>68.74724961572299</v>
       </c>
       <c r="H34">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I34">
-        <v>665.25879360549</v>
+        <v>1021.358824526001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>202.7163326512736</v>
+        <v>267.4845156475145</v>
       </c>
       <c r="C35">
-        <v>0.111497164830679</v>
+        <v>0.1895268418626756</v>
       </c>
       <c r="D35">
-        <v>146.3964098265942</v>
+        <v>248.7902389250414</v>
       </c>
       <c r="E35">
-        <v>52.56738346416558</v>
+        <v>89.35590593785382</v>
       </c>
       <c r="F35">
-        <v>51.55174993016896</v>
+        <v>87.60648030977819</v>
       </c>
       <c r="G35">
-        <v>24.27090281999591</v>
+        <v>41.24834976943377</v>
       </c>
       <c r="H35">
-        <v>3.811211276377335</v>
+        <v>6.478432325881541</v>
       </c>
       <c r="I35">
-        <v>481.4254871334062</v>
+        <v>741.1534497573657</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>171.8717808158072</v>
+        <v>226.7850816148982</v>
       </c>
       <c r="C36">
-        <v>0.2304274739834033</v>
+        <v>0.3916888065161962</v>
       </c>
       <c r="D36">
-        <v>98.59350049546136</v>
+        <v>167.5526098882932</v>
       </c>
       <c r="E36">
-        <v>44.77962295095585</v>
+        <v>76.11799394706064</v>
       </c>
       <c r="F36">
-        <v>48.90807044657055</v>
+        <v>83.11384029389217</v>
       </c>
       <c r="G36">
-        <v>38.42892946499356</v>
+        <v>65.30988713493677</v>
       </c>
       <c r="H36">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I36">
-        <v>404.0827354065643</v>
+        <v>621.4305791275575</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>137.8932905585556</v>
+        <v>181.9504109693425</v>
       </c>
       <c r="C37">
-        <v>0.1709623194070411</v>
+        <v>0.2906078241894359</v>
       </c>
       <c r="D37">
-        <v>77.67972766309072</v>
+        <v>132.0111471847158</v>
       </c>
       <c r="E37">
-        <v>37.96533250189736</v>
+        <v>64.53482095511666</v>
       </c>
       <c r="F37">
-        <v>27.75863457778327</v>
+        <v>47.17272016680367</v>
       </c>
       <c r="G37">
-        <v>24.27090281999591</v>
+        <v>41.24834976943377</v>
       </c>
       <c r="H37">
-        <v>2.540807517584891</v>
+        <v>4.318954883921028</v>
       </c>
       <c r="I37">
-        <v>308.2796579583148</v>
+        <v>471.5270117535229</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>104.5745768111533</v>
+        <v>137.9863164528267</v>
       </c>
       <c r="C38">
-        <v>0.1932617523731769</v>
+        <v>0.3285131925619711</v>
       </c>
       <c r="D38">
-        <v>65.72900033030754</v>
+        <v>111.7017399255288</v>
       </c>
       <c r="E38">
-        <v>12.65511083396579</v>
+        <v>21.51160698503888</v>
       </c>
       <c r="F38">
-        <v>18.50575638518886</v>
+        <v>31.44848011120244</v>
       </c>
       <c r="G38">
-        <v>16.18060187999728</v>
+        <v>27.49889984628919</v>
       </c>
       <c r="H38">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I38">
-        <v>219.1087117517784</v>
+        <v>332.6350339554085</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>65.48281860256769</v>
+        <v>86.4046808072117</v>
       </c>
       <c r="C39">
-        <v>0.1263634534747695</v>
+        <v>0.2147970874443656</v>
       </c>
       <c r="D39">
-        <v>50.79059116432858</v>
+        <v>86.31498085154495</v>
       </c>
       <c r="E39">
-        <v>8.761230577360928</v>
+        <v>14.8926509896423</v>
       </c>
       <c r="F39">
-        <v>29.08047431958248</v>
+        <v>49.4190401747467</v>
       </c>
       <c r="G39">
-        <v>26.29347805499557</v>
+        <v>44.68571225021992</v>
       </c>
       <c r="H39">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I39">
-        <v>181.8053599311025</v>
+        <v>284.0913396027705</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>49.1533499837913</v>
+        <v>64.85792161347378</v>
       </c>
       <c r="C40">
-        <v>0.1783954637290864</v>
+        <v>0.3032429469802809</v>
       </c>
       <c r="D40">
-        <v>26.88913649876219</v>
+        <v>45.69616633317089</v>
       </c>
       <c r="E40">
-        <v>2.920410192453644</v>
+        <v>4.964216996547433</v>
       </c>
       <c r="F40">
-        <v>11.89655767619283</v>
+        <v>20.21688007148728</v>
       </c>
       <c r="G40">
-        <v>18.20317711499693</v>
+        <v>30.93626232707533</v>
       </c>
       <c r="H40">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I40">
-        <v>110.5114306887184</v>
+        <v>169.1341677306955</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>31.33938421785353</v>
+        <v>41.35236612939602</v>
       </c>
       <c r="C41">
-        <v>0.2006948966952222</v>
+        <v>0.3411483153528161</v>
       </c>
       <c r="E41">
-        <v>0.9734700641512141</v>
+        <v>1.654738998849145</v>
       </c>
       <c r="F41">
-        <v>25.11495509418487</v>
+        <v>42.68008015091758</v>
       </c>
       <c r="G41">
-        <v>18.20317711499693</v>
+        <v>30.93626232707533</v>
       </c>
       <c r="H41">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I41">
-        <v>77.1020851466742</v>
+        <v>119.1240733635514</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>18.80363053071211</v>
+        <v>24.81141967763763</v>
       </c>
       <c r="C42">
-        <v>0.1635291750849959</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D42">
-        <v>26.88913649876219</v>
+        <v>45.69616633317089</v>
       </c>
       <c r="F42">
-        <v>18.50575638518886</v>
+        <v>31.44848011120244</v>
       </c>
       <c r="G42">
-        <v>30.3386285249949</v>
+        <v>51.56043721179222</v>
       </c>
       <c r="I42">
-        <v>94.70068111474305</v>
+        <v>153.7944760352018</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>23.25712197219658</v>
+        <v>30.68780854865705</v>
       </c>
       <c r="C43">
-        <v>0.111497164830679</v>
+        <v>0.1895268418626756</v>
       </c>
       <c r="D43">
-        <v>20.91377283237059</v>
+        <v>35.54146270357734</v>
       </c>
       <c r="E43">
-        <v>3.893880256604856</v>
+        <v>6.618955995396579</v>
       </c>
       <c r="F43">
-        <v>18.50575638518886</v>
+        <v>31.44848011120244</v>
       </c>
       <c r="G43">
-        <v>38.42892946499356</v>
+        <v>65.30988713493677</v>
       </c>
       <c r="I43">
-        <v>105.1109580761851</v>
+        <v>169.7961213356328</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>38.43198169873619</v>
+        <v>50.71105951657513</v>
       </c>
       <c r="C44">
-        <v>0.09663087618658846</v>
+        <v>0.1642565962809855</v>
       </c>
       <c r="D44">
-        <v>41.82754566474118</v>
+        <v>71.08292540715469</v>
       </c>
       <c r="E44">
-        <v>1.946940128302428</v>
+        <v>3.30947799769829</v>
       </c>
       <c r="F44">
-        <v>30.40231406138168</v>
+        <v>51.6653601826897</v>
       </c>
       <c r="G44">
-        <v>46.51923040499218</v>
+        <v>79.05933705808137</v>
       </c>
       <c r="I44">
-        <v>159.2246428343402</v>
+        <v>255.9924167584801</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>87.09049930014032</v>
+        <v>114.916049033269</v>
       </c>
       <c r="C45">
-        <v>0.111497164830679</v>
+        <v>0.1895268418626756</v>
       </c>
       <c r="D45">
-        <v>98.59350049546136</v>
+        <v>167.5526098882932</v>
       </c>
       <c r="E45">
-        <v>24.33675160378036</v>
+        <v>41.3684749712286</v>
       </c>
       <c r="F45">
-        <v>76.66670502435383</v>
+        <v>130.2865604606959</v>
       </c>
       <c r="G45">
-        <v>72.81270845998772</v>
+        <v>123.7450493083013</v>
       </c>
       <c r="H45">
-        <v>1.270403758792445</v>
+        <v>2.159477441960514</v>
       </c>
       <c r="I45">
-        <v>360.8820658073467</v>
+        <v>580.2177479456111</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>160.6555801483649</v>
+        <v>211.9852874212197</v>
       </c>
       <c r="C46">
-        <v>0.1189303091527243</v>
+        <v>0.2021619646535207</v>
       </c>
       <c r="D46">
-        <v>176.2732281585521</v>
+        <v>299.563757073009</v>
       </c>
       <c r="E46">
-        <v>87.61230577360928</v>
+        <v>148.926509896423</v>
       </c>
       <c r="F46">
-        <v>132.1839741799204</v>
+        <v>224.6320007943031</v>
       </c>
       <c r="G46">
-        <v>119.3319388649799</v>
+        <v>202.8043863663828</v>
       </c>
       <c r="H46">
-        <v>5.081615035169781</v>
+        <v>8.637909767842055</v>
       </c>
       <c r="I46">
-        <v>681.2575724697491</v>
+        <v>1096.752013283833</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>226.1383987509326</v>
+        <v>298.3899682284315</v>
       </c>
       <c r="C47">
-        <v>0.07433144322045265</v>
+        <v>0.1263512279084504</v>
       </c>
       <c r="D47">
-        <v>143.4087279933983</v>
+        <v>243.7128871102446</v>
       </c>
       <c r="E47">
-        <v>69.11637455473621</v>
+        <v>117.4864689182893</v>
       </c>
       <c r="F47">
-        <v>153.3334100487077</v>
+        <v>260.5731209213918</v>
       </c>
       <c r="G47">
-        <v>119.3319388649799</v>
+        <v>202.8043863663828</v>
       </c>
       <c r="H47">
-        <v>10.16323007033956</v>
+        <v>17.27581953568411</v>
       </c>
       <c r="I47">
-        <v>721.5664117263146</v>
+        <v>1140.369002308333</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>276.4463576269605</v>
+        <v>364.7713980677253</v>
       </c>
       <c r="C48">
-        <v>0.1635291750849959</v>
+        <v>0.2779727013985909</v>
       </c>
       <c r="D48">
-        <v>233.0391829892722</v>
+        <v>396.0334415541476</v>
       </c>
       <c r="E48">
-        <v>36.99186243774614</v>
+        <v>62.8800819562675</v>
       </c>
       <c r="F48">
-        <v>183.7357241100893</v>
+        <v>312.2384811040814</v>
       </c>
       <c r="G48">
-        <v>171.9188949749711</v>
+        <v>292.1758108668225</v>
       </c>
       <c r="H48">
-        <v>12.70403758792446</v>
+        <v>21.59477441960514</v>
       </c>
       <c r="I48">
-        <v>914.9995889020486</v>
+        <v>1449.971960670048</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>208.1594888575324</v>
+        <v>274.6667687120937</v>
       </c>
       <c r="C49">
-        <v>0.1040640205086338</v>
+        <v>0.1768917190718305</v>
       </c>
       <c r="D49">
-        <v>218.1007738232933</v>
+        <v>370.6466824801637</v>
       </c>
       <c r="E49">
-        <v>78.85107519624835</v>
+        <v>134.0338589067807</v>
       </c>
       <c r="F49">
-        <v>208.8506792042742</v>
+        <v>354.918561254999</v>
       </c>
       <c r="G49">
-        <v>275.0702319599538</v>
+        <v>467.481297386916</v>
       </c>
       <c r="H49">
-        <v>25.40807517584891</v>
+        <v>43.18954883921027</v>
       </c>
       <c r="I49">
-        <v>1014.54438823766</v>
+        <v>1645.113609299235</v>
       </c>
     </row>
   </sheetData>
